--- a/teaching/traditional_assets/database/data/japan/japan_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_financial_svcs_non_bank_insurance.xlsx
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0616</v>
+        <v>0.05925</v>
       </c>
       <c r="E2">
-        <v>0.064</v>
+        <v>0.0242</v>
+      </c>
+      <c r="F2">
+        <v>0.0269</v>
       </c>
       <c r="G2">
-        <v>0.1637213735069042</v>
+        <v>0.1726473328945912</v>
       </c>
       <c r="H2">
-        <v>0.1636995090584168</v>
+        <v>0.1726360828484845</v>
       </c>
       <c r="I2">
-        <v>0.09106795561360168</v>
+        <v>0.08304139622792013</v>
       </c>
       <c r="J2">
-        <v>0.06581369303022375</v>
+        <v>0.06272391600438716</v>
       </c>
       <c r="K2">
-        <v>12315.932</v>
+        <v>18792.23</v>
       </c>
       <c r="L2">
-        <v>0.1242071313601543</v>
+        <v>0.1824102277382069</v>
       </c>
       <c r="M2">
-        <v>2454.65705</v>
+        <v>3353.2205</v>
       </c>
       <c r="N2">
-        <v>0.03119056668026283</v>
+        <v>0.03554403280054357</v>
       </c>
       <c r="O2">
-        <v>0.1993074539547637</v>
+        <v>0.1784365399955194</v>
       </c>
       <c r="P2">
-        <v>1956.98005</v>
+        <v>2581.3505</v>
       </c>
       <c r="Q2">
-        <v>0.02486673922186771</v>
+        <v>0.02736223485502953</v>
       </c>
       <c r="R2">
-        <v>0.158898250656142</v>
+        <v>0.13736264935029</v>
       </c>
       <c r="S2">
-        <v>497.677</v>
+        <v>771.87</v>
       </c>
       <c r="T2">
-        <v>0.2027480783924581</v>
+        <v>0.2301876658573452</v>
       </c>
       <c r="U2">
-        <v>44082.19</v>
+        <v>228389.26</v>
       </c>
       <c r="V2">
-        <v>0.5601387316435977</v>
+        <v>2.420919038498027</v>
       </c>
       <c r="W2">
-        <v>0.1099174636447007</v>
+        <v>0.09270290394638867</v>
       </c>
       <c r="X2">
-        <v>0.04050124567168058</v>
+        <v>0.03335755020554238</v>
       </c>
       <c r="Y2">
-        <v>0.06941621797302008</v>
+        <v>0.05934535374084628</v>
       </c>
       <c r="Z2">
-        <v>0.07636685722895646</v>
+        <v>0.08559661166303603</v>
       </c>
       <c r="AA2">
-        <v>0.01590544359022278</v>
+        <v>0.01921497897273496</v>
       </c>
       <c r="AB2">
-        <v>0.03066379429249956</v>
+        <v>0.02310729556577667</v>
       </c>
       <c r="AC2">
-        <v>-0.01517252598198125</v>
+        <v>-0.007552927267175987</v>
       </c>
       <c r="AD2">
-        <v>1266910.52</v>
+        <v>1473570.48</v>
       </c>
       <c r="AE2">
-        <v>1113.691829977343</v>
+        <v>2704.504430432285</v>
       </c>
       <c r="AF2">
-        <v>1268024.211829977</v>
+        <v>1476274.984430432</v>
       </c>
       <c r="AG2">
-        <v>1223942.021829977</v>
+        <v>1247885.724430432</v>
       </c>
       <c r="AH2">
-        <v>0.9415628119870173</v>
+        <v>0.9399344161734394</v>
       </c>
       <c r="AI2">
-        <v>0.9184705087750664</v>
+        <v>0.9141517569652059</v>
       </c>
       <c r="AJ2">
-        <v>0.939585260401316</v>
+        <v>0.9297138288206704</v>
       </c>
       <c r="AK2">
-        <v>0.9157813969306687</v>
+        <v>0.9000107617701343</v>
       </c>
       <c r="AL2">
-        <v>990.89</v>
+        <v>1020.64</v>
       </c>
       <c r="AM2">
-        <v>821.518</v>
+        <v>861.482</v>
       </c>
       <c r="AN2">
-        <v>72.66878589242654</v>
+        <v>79.61146923003159</v>
       </c>
       <c r="AO2">
-        <v>9.092965919526891</v>
+        <v>8.399670794795423</v>
       </c>
       <c r="AP2">
-        <v>70.20415358861041</v>
+        <v>67.41857094822436</v>
       </c>
       <c r="AQ2">
-        <v>10.96765865142334</v>
+        <v>9.951502178803505</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MINKABU THE INFONOID, Inc. (TSE:4436)</t>
+          <t>Casa Inc. (TSE:7196)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,106 +728,109 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.246448087431694</v>
+        <v>0.1795407098121086</v>
       </c>
       <c r="H3">
-        <v>0.246448087431694</v>
+        <v>0.1795407098121086</v>
       </c>
       <c r="I3">
-        <v>0.1554565525105256</v>
+        <v>0.1137787056367432</v>
       </c>
       <c r="J3">
-        <v>0.1554565525105256</v>
+        <v>0.0669697469142585</v>
       </c>
       <c r="K3">
-        <v>2.28</v>
+        <v>6.76</v>
       </c>
       <c r="L3">
-        <v>0.1245901639344262</v>
+        <v>0.07056367432150314</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>2.7068</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02612741312741313</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.400414201183432</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>2.7068</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02612741312741313</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.400414201183432</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>12.1</v>
+        <v>30.7</v>
       </c>
       <c r="V3">
-        <v>0.08281998631074607</v>
+        <v>0.2963320463320464</v>
+      </c>
+      <c r="W3">
+        <v>0.1110016420361248</v>
       </c>
       <c r="X3">
-        <v>0.02821482600616701</v>
+        <v>0.01816978031035037</v>
+      </c>
+      <c r="Y3">
+        <v>0.09283186172577443</v>
       </c>
       <c r="Z3">
-        <v>27.90802176662973</v>
+        <v>239.5000000000051</v>
       </c>
       <c r="AA3">
-        <v>4.338484851228967</v>
+        <v>16.03925438596525</v>
       </c>
       <c r="AB3">
-        <v>0.02828531726500921</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC3">
-        <v>4.310199533963957</v>
+        <v>16.0210846056549</v>
       </c>
       <c r="AD3">
-        <v>4.11</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.6557254452869079</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.765725445286908</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-7.334274554713091</v>
+        <v>-30.7</v>
       </c>
       <c r="AH3">
-        <v>0.0315891858884492</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.1564290813900239</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05285364618084224</v>
+        <v>-0.421124828532236</v>
       </c>
       <c r="AK3">
-        <v>-0.3993457583019267</v>
+        <v>-0.905604719764012</v>
       </c>
       <c r="AL3">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.8049353701527615</v>
-      </c>
-      <c r="AO3">
-        <v>26.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.436403163868604</v>
-      </c>
-      <c r="AQ3">
-        <v>26.44444444444444</v>
+        <v>-1.774566473988439</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>eGuarantee, Inc. (TSE:8771)</t>
+          <t>MINKABU THE INFONOID, Inc. (TSE:4436)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,119 +849,107 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.08359999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.212</v>
-      </c>
       <c r="G4">
-        <v>0.4371482176360226</v>
+        <v>0.3084942084942085</v>
       </c>
       <c r="H4">
-        <v>0.4371482176360226</v>
+        <v>0.3084942084942085</v>
       </c>
       <c r="I4">
-        <v>0.4559099437148218</v>
+        <v>0.2041234977061151</v>
       </c>
       <c r="J4">
-        <v>0.3643511698944071</v>
+        <v>0.1929123384229127</v>
       </c>
       <c r="K4">
-        <v>19.2</v>
+        <v>4.15</v>
       </c>
       <c r="L4">
-        <v>0.3602251407129456</v>
+        <v>0.1602316602316602</v>
       </c>
       <c r="M4">
-        <v>5.1</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01038273615635179</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.265625</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>5.1</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01038273615635179</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.265625</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>61.9</v>
+        <v>17</v>
       </c>
       <c r="V4">
-        <v>0.1260179153094463</v>
-      </c>
-      <c r="W4">
-        <v>0.2487046632124352</v>
+        <v>0.03185907046476762</v>
       </c>
       <c r="X4">
-        <v>0.02801532215363055</v>
-      </c>
-      <c r="Y4">
-        <v>0.2206893410588047</v>
+        <v>0.01837461283806567</v>
       </c>
       <c r="Z4">
-        <v>5.277227722772272</v>
+        <v>19.03002637347431</v>
       </c>
       <c r="AA4">
-        <v>1.922764094591276</v>
+        <v>3.671126887956631</v>
       </c>
       <c r="AB4">
-        <v>0.02801532215363055</v>
+        <v>0.0184983067300891</v>
       </c>
       <c r="AC4">
-        <v>1.894748772437645</v>
+        <v>3.652628581226542</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.361007047058098</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>17.7610070470581</v>
       </c>
       <c r="AG4">
-        <v>-61.9</v>
+        <v>0.7610070470580972</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.03221302707309916</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.3340983934208783</v>
       </c>
       <c r="AJ4">
-        <v>-0.1441882133706033</v>
+        <v>0.001424144046856098</v>
       </c>
       <c r="AK4">
-        <v>-1.387892376681614</v>
+        <v>0.0210449627707481</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AM4">
-        <v>-0.213</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.887443894579353</v>
+      </c>
+      <c r="AO4">
+        <v>57.85714285714285</v>
       </c>
       <c r="AP4">
-        <v>-2.476</v>
+        <v>0.08758281126229683</v>
       </c>
       <c r="AQ4">
-        <v>-114.0845070422535</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Uzabase, Inc. (TSE:3966)</t>
+          <t>Entrust Inc. (TSE:7191)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,22 +969,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.0943231441048035</v>
+        <v>0.2624664879356569</v>
       </c>
       <c r="H5">
-        <v>0.0943231441048035</v>
+        <v>0.2624664879356569</v>
       </c>
       <c r="I5">
-        <v>-0.05755458515283843</v>
+        <v>0.2761394101876676</v>
       </c>
       <c r="J5">
-        <v>-0.02877729257641921</v>
+        <v>0.1863941018766756</v>
       </c>
       <c r="K5">
-        <v>-3.4</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>-0.0296943231441048</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -999,7 +993,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1008,79 +1002,76 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>57.9</v>
+        <v>27.7</v>
       </c>
       <c r="V5">
-        <v>0.08413251961639058</v>
+        <v>0.1515317286652079</v>
       </c>
       <c r="W5">
-        <v>-0.07906976744186046</v>
+        <v>0.2422145328719723</v>
       </c>
       <c r="X5">
-        <v>0.02884092946312859</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y5">
-        <v>-0.1079106969049891</v>
+        <v>0.224044752561622</v>
       </c>
       <c r="Z5">
-        <v>-45.79999999999974</v>
+        <v>12.86206896551725</v>
       </c>
       <c r="AA5">
-        <v>1.317999999999993</v>
+        <v>2.39741379310345</v>
       </c>
       <c r="AB5">
-        <v>0.02903186700122153</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC5">
-        <v>1.288968132998771</v>
+        <v>2.379244012793099</v>
       </c>
       <c r="AD5">
-        <v>92.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>92.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>35.00000000000001</v>
+        <v>-27.7</v>
       </c>
       <c r="AH5">
-        <v>0.1189348354884138</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.6830882352941177</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.04839601769911505</v>
+        <v>-0.1785944551901998</v>
       </c>
       <c r="AK5">
-        <v>0.4481434058898848</v>
+        <v>-3.901408450704226</v>
       </c>
       <c r="AL5">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.722</v>
+        <v>-0.028</v>
       </c>
       <c r="AN5">
-        <v>-80.78260869565219</v>
-      </c>
-      <c r="AO5">
-        <v>-8.580729166666666</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-30.43478260869566</v>
+        <v>-2.613207547169811</v>
       </c>
       <c r="AQ5">
-        <v>-9.127423822714682</v>
+        <v>-367.8571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Premium Group Co., Ltd. (TSE:7199)</t>
+          <t>eGuarantee, Inc. (TSE:8771)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1099,41 +1090,47 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.157</v>
+      </c>
       <c r="G6">
-        <v>0.1767317939609236</v>
+        <v>0.4220779220779221</v>
       </c>
       <c r="H6">
-        <v>0.1767317939609236</v>
+        <v>0.4220779220779221</v>
       </c>
       <c r="I6">
-        <v>0.3355638534311902</v>
+        <v>0.4512987012987013</v>
       </c>
       <c r="J6">
-        <v>0.20581249677113</v>
+        <v>0.3601906552094522</v>
       </c>
       <c r="K6">
-        <v>23.1</v>
+        <v>19.9</v>
       </c>
       <c r="L6">
-        <v>0.2051509769094139</v>
+        <v>0.323051948051948</v>
       </c>
       <c r="M6">
-        <v>7.760999999999999</v>
+        <v>6.0382</v>
       </c>
       <c r="N6">
-        <v>0.02741434122218297</v>
+        <v>0.006099808061420345</v>
       </c>
       <c r="O6">
-        <v>0.3359740259740259</v>
+        <v>0.303427135678392</v>
       </c>
       <c r="P6">
-        <v>7.760999999999999</v>
+        <v>6.0382</v>
       </c>
       <c r="Q6">
-        <v>0.02741434122218297</v>
+        <v>0.006099808061420345</v>
       </c>
       <c r="R6">
-        <v>0.3359740259740259</v>
+        <v>0.303427135678392</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1142,73 +1139,70 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>62.8</v>
+        <v>114.2</v>
       </c>
       <c r="V6">
-        <v>0.2218297421405863</v>
+        <v>0.115365188402869</v>
       </c>
       <c r="W6">
-        <v>0.5486935866983373</v>
+        <v>0.2038934426229508</v>
       </c>
       <c r="X6">
-        <v>0.0312435434010144</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y6">
-        <v>0.5174500432973229</v>
+        <v>0.1857236623126004</v>
       </c>
       <c r="Z6">
-        <v>2.495149829913519</v>
+        <v>1.725490196078432</v>
       </c>
       <c r="AA6">
-        <v>0.5135330163125615</v>
+        <v>0.6215054442829764</v>
       </c>
       <c r="AB6">
-        <v>0.03005729975479494</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC6">
-        <v>0.4834757165577666</v>
+        <v>0.6033356639726261</v>
       </c>
       <c r="AD6">
-        <v>145.8</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.62755051823991</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>149.4275505182399</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>86.62755051823991</v>
+        <v>-114.2</v>
       </c>
       <c r="AH6">
-        <v>0.3454752196460106</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.6920263308670165</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.2343010424752382</v>
+        <v>-0.1304099577480873</v>
       </c>
       <c r="AK6">
-        <v>0.5657215192501966</v>
+        <v>-3.262857142857144</v>
       </c>
       <c r="AL6">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.286</v>
+        <v>-0.209</v>
       </c>
       <c r="AN6">
-        <v>3.335621139327385</v>
-      </c>
-      <c r="AO6">
-        <v>118.0327868852459</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.981870293256461</v>
+        <v>-4.007017543859649</v>
       </c>
       <c r="AQ6">
-        <v>125.8741258741259</v>
+        <v>-133.0143540669856</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Money Partners Group Co.,Ltd. (TSE:8732)</t>
+          <t>Japan Exchange Group, Inc. (TSE:8697)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,121 +1222,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0411</v>
+        <v>0.0253</v>
       </c>
       <c r="E7">
-        <v>0.009010000000000001</v>
+        <v>0.0242</v>
       </c>
       <c r="G7">
-        <v>0.2623574144486692</v>
+        <v>0.6246133810841609</v>
       </c>
       <c r="H7">
-        <v>0.2623574144486692</v>
+        <v>0.6246133810841609</v>
       </c>
       <c r="I7">
-        <v>0.1466430340559585</v>
+        <v>0.5344294318736774</v>
       </c>
       <c r="J7">
-        <v>0.09335900030738119</v>
+        <v>0.3732275553983617</v>
       </c>
       <c r="K7">
-        <v>4.22</v>
+        <v>472.4</v>
       </c>
       <c r="L7">
-        <v>0.08022813688212926</v>
+        <v>0.3845026859840469</v>
       </c>
       <c r="M7">
-        <v>1.3356</v>
+        <v>409.2274</v>
       </c>
       <c r="N7">
-        <v>0.0188112676056338</v>
+        <v>0.02991078528827038</v>
       </c>
       <c r="O7">
-        <v>0.3164928909952607</v>
+        <v>0.8662730736663844</v>
       </c>
       <c r="P7">
-        <v>1.3356</v>
+        <v>405.7574</v>
       </c>
       <c r="Q7">
-        <v>0.0188112676056338</v>
+        <v>0.02965715998128873</v>
       </c>
       <c r="R7">
-        <v>0.3164928909952607</v>
+        <v>0.8589276037256561</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>3.470000000000027</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.008479393119815602</v>
       </c>
       <c r="U7">
-        <v>150.5</v>
+        <v>806.5</v>
       </c>
       <c r="V7">
-        <v>2.119718309859155</v>
+        <v>0.05894778388492574</v>
       </c>
       <c r="W7">
-        <v>0.03616109682947729</v>
+        <v>0.1790682688298396</v>
       </c>
       <c r="X7">
-        <v>0.03092113461966722</v>
+        <v>0.01839346112143945</v>
       </c>
       <c r="Y7">
-        <v>0.005239962209810073</v>
+        <v>0.1606748077084002</v>
       </c>
       <c r="Z7">
-        <v>4.600764689154103</v>
+        <v>0.637869269508333</v>
       </c>
       <c r="AA7">
-        <v>0.4295227920289265</v>
+        <v>0.2380703881223338</v>
       </c>
       <c r="AB7">
-        <v>0.02991904825911491</v>
+        <v>0.01836687362004195</v>
       </c>
       <c r="AC7">
-        <v>0.3996037437698116</v>
+        <v>0.2197035145022919</v>
       </c>
       <c r="AD7">
-        <v>29.3</v>
+        <v>497.3</v>
       </c>
       <c r="AE7">
-        <v>4.432882043282918</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>33.73288204328292</v>
+        <v>497.3</v>
       </c>
       <c r="AG7">
-        <v>-116.7671179567171</v>
+        <v>-309.2</v>
       </c>
       <c r="AH7">
-        <v>0.3220849210407687</v>
+        <v>0.03507324263518326</v>
       </c>
       <c r="AI7">
-        <v>0.213454830457651</v>
+        <v>0.1433430375003603</v>
       </c>
       <c r="AJ7">
-        <v>2.551332117245097</v>
+        <v>-0.0231222518022195</v>
       </c>
       <c r="AK7">
-        <v>-15.50098850423901</v>
+        <v>-0.1161183716388764</v>
       </c>
       <c r="AL7">
-        <v>0.176</v>
+        <v>0.92</v>
       </c>
       <c r="AM7">
-        <v>0.05599999999999999</v>
+        <v>-4.39</v>
       </c>
       <c r="AN7">
-        <v>2.464255677039529</v>
+        <v>0.6035194174757281</v>
       </c>
       <c r="AO7">
-        <v>37.10227272727273</v>
+        <v>713.695652173913</v>
       </c>
       <c r="AP7">
-        <v>-9.820615471548955</v>
+        <v>-0.375242718446602</v>
       </c>
       <c r="AQ7">
-        <v>116.6071428571429</v>
+        <v>-149.5671981776765</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1347,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mortgage Service Japan Limited (TSE:7192)</t>
+          <t>Morningstar Japan K.K. (TSE:4765)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1361,41 +1355,47 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.0907</v>
+      </c>
+      <c r="E8">
+        <v>0.07490000000000001</v>
+      </c>
       <c r="G8">
-        <v>0.1849427168576105</v>
+        <v>0.2659732540861813</v>
       </c>
       <c r="H8">
-        <v>0.1849427168576105</v>
+        <v>0.2659732540861813</v>
       </c>
       <c r="I8">
-        <v>0.1963993453355155</v>
+        <v>0.2270624791243664</v>
       </c>
       <c r="J8">
-        <v>0.1369885433715221</v>
+        <v>0.1579511125274964</v>
       </c>
       <c r="K8">
-        <v>8.35</v>
+        <v>11.8</v>
       </c>
       <c r="L8">
-        <v>0.1366612111292962</v>
+        <v>0.175334323922734</v>
       </c>
       <c r="M8">
-        <v>1.30425</v>
+        <v>13.0242</v>
       </c>
       <c r="N8">
-        <v>0.01171832884097035</v>
+        <v>0.03305634517766497</v>
       </c>
       <c r="O8">
-        <v>0.1561976047904192</v>
+        <v>1.103745762711864</v>
       </c>
       <c r="P8">
-        <v>1.30425</v>
+        <v>13.0242</v>
       </c>
       <c r="Q8">
-        <v>0.01171832884097035</v>
+        <v>0.03305634517766497</v>
       </c>
       <c r="R8">
-        <v>0.1561976047904192</v>
+        <v>1.103745762711864</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1404,70 +1404,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>45.6</v>
+        <v>32.9</v>
       </c>
       <c r="V8">
-        <v>0.4097035040431267</v>
+        <v>0.08350253807106599</v>
       </c>
       <c r="W8">
-        <v>0.2684887459807074</v>
+        <v>0.1373690337601862</v>
       </c>
       <c r="X8">
-        <v>0.03190586835418197</v>
+        <v>0.01850470419397707</v>
       </c>
       <c r="Y8">
-        <v>0.2365828776265254</v>
+        <v>0.1188643295662092</v>
       </c>
       <c r="Z8">
-        <v>2.923444976076554</v>
+        <v>1.327587011377377</v>
       </c>
       <c r="AA8">
-        <v>0.4004784688995215</v>
+        <v>0.2096938454241108</v>
       </c>
       <c r="AB8">
-        <v>0.03133840201997248</v>
+        <v>0.01845983453892727</v>
       </c>
       <c r="AC8">
-        <v>0.369140066879549</v>
+        <v>0.1912340108851835</v>
       </c>
       <c r="AD8">
-        <v>70.8</v>
+        <v>19</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>2.443475774650702</v>
       </c>
       <c r="AF8">
-        <v>70.8</v>
+        <v>21.4434757746507</v>
       </c>
       <c r="AG8">
-        <v>25.2</v>
+        <v>-11.4565242253493</v>
       </c>
       <c r="AH8">
-        <v>0.3887973640856672</v>
+        <v>0.05161586840343667</v>
       </c>
       <c r="AI8">
-        <v>0.6436363636363636</v>
+        <v>0.1953963606791818</v>
       </c>
       <c r="AJ8">
-        <v>0.1846153846153846</v>
+        <v>-0.02994829333358733</v>
       </c>
       <c r="AK8">
-        <v>0.3913043478260869</v>
+        <v>-0.1490890945504134</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="AM8">
-        <v>-2.86</v>
+        <v>-3.022</v>
       </c>
       <c r="AN8">
-        <v>5.531249999999999</v>
+        <v>0.9373458312777504</v>
+      </c>
+      <c r="AO8">
+        <v>64.47368421052632</v>
       </c>
       <c r="AP8">
-        <v>1.96875</v>
+        <v>-0.5651960643980907</v>
       </c>
       <c r="AQ8">
-        <v>-4.195804195804196</v>
+        <v>-4.864328259430841</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1481,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Morningstar Japan K.K. (JASDAQ:4765)</t>
+          <t>Anshin Guarantor Service Co., Ltd. (TSE:7183)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1486,122 +1489,113 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.09119999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.119</v>
-      </c>
       <c r="G9">
-        <v>0.3008849557522124</v>
+        <v>0.1261764705882353</v>
       </c>
       <c r="H9">
-        <v>0.3008849557522124</v>
+        <v>0.1261764705882353</v>
       </c>
       <c r="I9">
-        <v>0.263716814159292</v>
+        <v>0.1226470588235294</v>
       </c>
       <c r="J9">
-        <v>0.185713828766393</v>
+        <v>0.08184970037911214</v>
       </c>
       <c r="K9">
-        <v>11.7</v>
+        <v>3.22</v>
       </c>
       <c r="L9">
-        <v>0.2070796460176991</v>
+        <v>0.09470588235294118</v>
       </c>
       <c r="M9">
-        <v>11.1086</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.03558167841127483</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.9494529914529916</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>11.1086</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.03558167841127483</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.9494529914529916</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>35.6</v>
+        <v>8.59</v>
       </c>
       <c r="V9">
-        <v>0.114029468289558</v>
+        <v>0.1297583081570997</v>
       </c>
       <c r="W9">
-        <v>0.1404561824729892</v>
+        <v>0.1570731707317073</v>
       </c>
       <c r="X9">
-        <v>0.02819653180199458</v>
+        <v>0.01842820497727654</v>
       </c>
       <c r="Y9">
-        <v>0.1122596506709946</v>
+        <v>0.1386449657544308</v>
       </c>
       <c r="Z9">
-        <v>1.850638716017032</v>
+        <v>2.154626108998733</v>
       </c>
       <c r="AA9">
-        <v>0.3436892016148446</v>
+        <v>0.1763555014505585</v>
       </c>
       <c r="AB9">
-        <v>0.02818540572831655</v>
+        <v>0.0185807978631099</v>
       </c>
       <c r="AC9">
-        <v>0.315503795886528</v>
+        <v>0.1577747035874486</v>
       </c>
       <c r="AD9">
-        <v>9.25</v>
+        <v>2.78</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>9.25</v>
+        <v>2.78</v>
       </c>
       <c r="AG9">
-        <v>-26.35</v>
+        <v>-5.81</v>
       </c>
       <c r="AH9">
-        <v>0.02877585938715197</v>
+        <v>0.04030153667729777</v>
       </c>
       <c r="AI9">
-        <v>0.09650495565988525</v>
+        <v>0.1061879297173415</v>
       </c>
       <c r="AJ9">
-        <v>-0.09218121392338641</v>
+        <v>-0.0962079814538831</v>
       </c>
       <c r="AK9">
-        <v>-0.437344398340249</v>
+        <v>-0.3303013075611144</v>
       </c>
       <c r="AL9">
         <v>0.065</v>
       </c>
       <c r="AM9">
-        <v>-1.885</v>
+        <v>0.065</v>
       </c>
       <c r="AN9">
-        <v>0.5255681818181818</v>
+        <v>0.5673469387755101</v>
       </c>
       <c r="AO9">
-        <v>229.2307692307692</v>
+        <v>64.15384615384615</v>
       </c>
       <c r="AP9">
-        <v>-1.497159090909091</v>
+        <v>-1.185714285714286</v>
       </c>
       <c r="AQ9">
-        <v>-7.904509283819629</v>
+        <v>64.15384615384615</v>
       </c>
     </row>
     <row r="10">
@@ -1612,7 +1606,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Japan Exchange Group, Inc. (TSE:8697)</t>
+          <t>Mortgage Service Japan Limited (TSE:7192)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1621,121 +1615,118 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0282</v>
+        <v>0.184</v>
       </c>
       <c r="E10">
-        <v>0.113</v>
+        <v>0.397</v>
       </c>
       <c r="G10">
-        <v>0.6467033462613871</v>
+        <v>0.2119013062409289</v>
       </c>
       <c r="H10">
-        <v>0.6467033462613871</v>
+        <v>0.2119013062409289</v>
       </c>
       <c r="I10">
-        <v>0.5398214124650491</v>
+        <v>0.204644412191582</v>
       </c>
       <c r="J10">
-        <v>0.377263024486591</v>
+        <v>0.1382811528094547</v>
       </c>
       <c r="K10">
-        <v>432.1</v>
+        <v>9.44</v>
       </c>
       <c r="L10">
-        <v>0.3897357265265626</v>
+        <v>0.1370101596516691</v>
       </c>
       <c r="M10">
-        <v>260.7674</v>
+        <v>2.407</v>
       </c>
       <c r="N10">
-        <v>0.02746712591375424</v>
+        <v>0.01465895249695493</v>
       </c>
       <c r="O10">
-        <v>0.6034885443184448</v>
+        <v>0.2549788135593221</v>
       </c>
       <c r="P10">
-        <v>257.5274</v>
+        <v>2.407</v>
       </c>
       <c r="Q10">
-        <v>0.02712585055509912</v>
+        <v>0.01465895249695493</v>
       </c>
       <c r="R10">
-        <v>0.5959902800277713</v>
+        <v>0.2549788135593221</v>
       </c>
       <c r="S10">
-        <v>3.240000000000009</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.01242486599168458</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>573.9</v>
+        <v>54.4</v>
       </c>
       <c r="V10">
-        <v>0.06044997788030083</v>
+        <v>0.3313032886723508</v>
       </c>
       <c r="W10">
-        <v>0.1780534036591396</v>
+        <v>0.242051282051282</v>
       </c>
       <c r="X10">
-        <v>0.02832789640330336</v>
+        <v>0.02056461127087788</v>
       </c>
       <c r="Y10">
-        <v>0.1497255072558362</v>
+        <v>0.2214866707804042</v>
       </c>
       <c r="Z10">
-        <v>0.6390938436707402</v>
+        <v>1.073208722741433</v>
       </c>
       <c r="AA10">
-        <v>0.2411064763939841</v>
+        <v>0.1484045393858478</v>
       </c>
       <c r="AB10">
-        <v>0.02810030552745266</v>
+        <v>0.02102680725397857</v>
       </c>
       <c r="AC10">
-        <v>0.2130061708665314</v>
+        <v>0.1273777321318693</v>
       </c>
       <c r="AD10">
-        <v>485.2</v>
+        <v>63.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>485.2</v>
+        <v>63.9</v>
       </c>
       <c r="AG10">
-        <v>-88.69999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AH10">
-        <v>0.04862210642348933</v>
+        <v>0.2801402893467777</v>
       </c>
       <c r="AI10">
-        <v>0.1522578215709041</v>
+        <v>0.5580786026200873</v>
       </c>
       <c r="AJ10">
-        <v>-0.009431053364663853</v>
+        <v>0.05469199769717905</v>
       </c>
       <c r="AK10">
-        <v>-0.0339482547458665</v>
+        <v>0.1580698835274542</v>
       </c>
       <c r="AL10">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>-6.072</v>
+        <v>-3.14</v>
       </c>
       <c r="AN10">
-        <v>0.6667582795107874</v>
-      </c>
-      <c r="AO10">
-        <v>779.296875</v>
+        <v>4.288590604026846</v>
       </c>
       <c r="AP10">
-        <v>-0.1218908891026522</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="AQ10">
-        <v>-98.56719367588933</v>
+        <v>-4.490445859872612</v>
       </c>
     </row>
     <row r="11">
@@ -1755,115 +1746,115 @@
         </is>
       </c>
       <c r="G11">
-        <v>0.345810293492131</v>
+        <v>0.3361078081648831</v>
       </c>
       <c r="H11">
-        <v>0.345810293492131</v>
+        <v>0.3361078081648831</v>
       </c>
       <c r="I11">
-        <v>0.3105061675882603</v>
+        <v>0.2837891399128022</v>
       </c>
       <c r="J11">
-        <v>0.2128395392073832</v>
+        <v>0.1915787220479599</v>
       </c>
       <c r="K11">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="L11">
-        <v>0.1965121225010634</v>
+        <v>0.1803408640507332</v>
       </c>
       <c r="M11">
-        <v>26.8808</v>
+        <v>19.9836</v>
       </c>
       <c r="N11">
-        <v>0.03699532067162125</v>
+        <v>0.03222121896162528</v>
       </c>
       <c r="O11">
-        <v>0.5818354978354978</v>
+        <v>0.4392</v>
       </c>
       <c r="P11">
-        <v>7.180800000000001</v>
+        <v>17.1336</v>
       </c>
       <c r="Q11">
-        <v>0.009882741535920727</v>
+        <v>0.02762592712028377</v>
       </c>
       <c r="R11">
-        <v>0.1554285714285714</v>
+        <v>0.3765626373626373</v>
       </c>
       <c r="S11">
-        <v>19.7</v>
+        <v>2.850000000000001</v>
       </c>
       <c r="T11">
-        <v>0.7328650933007945</v>
+        <v>0.1426169458956345</v>
       </c>
       <c r="U11">
-        <v>102.6</v>
+        <v>246</v>
       </c>
       <c r="V11">
-        <v>0.1412056151940545</v>
+        <v>0.3966462431473718</v>
       </c>
       <c r="W11">
-        <v>0.2204198473282443</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="X11">
-        <v>0.03251609686020639</v>
+        <v>0.02454391049312345</v>
       </c>
       <c r="Y11">
-        <v>0.1879037504680379</v>
+        <v>0.1694859402531452</v>
       </c>
       <c r="Z11">
-        <v>0.8697743248242694</v>
+        <v>0.5730183965478083</v>
       </c>
       <c r="AA11">
-        <v>0.1851223665100103</v>
+        <v>0.1097781321206003</v>
       </c>
       <c r="AB11">
-        <v>0.03052100361996658</v>
+        <v>0.02335871865587925</v>
       </c>
       <c r="AC11">
-        <v>0.1546013628900438</v>
+        <v>0.08641941346472101</v>
       </c>
       <c r="AD11">
-        <v>534.7</v>
+        <v>642.4</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>534.7</v>
+        <v>642.4</v>
       </c>
       <c r="AG11">
-        <v>432.1</v>
+        <v>396.4</v>
       </c>
       <c r="AH11">
-        <v>0.4239276936494093</v>
+        <v>0.5087913828607635</v>
       </c>
       <c r="AI11">
-        <v>0.6951378055122205</v>
+        <v>0.7047723532638508</v>
       </c>
       <c r="AJ11">
-        <v>0.3729179252610684</v>
+        <v>0.3899272083415306</v>
       </c>
       <c r="AK11">
-        <v>0.6482148214821483</v>
+        <v>0.5956423741547708</v>
       </c>
       <c r="AL11">
-        <v>4.78</v>
+        <v>4.29</v>
       </c>
       <c r="AM11">
-        <v>4.78</v>
+        <v>4.29</v>
       </c>
       <c r="AN11">
-        <v>6.055492638731597</v>
+        <v>7.522248243559718</v>
       </c>
       <c r="AO11">
-        <v>15.27196652719665</v>
+        <v>16.68997668997669</v>
       </c>
       <c r="AP11">
-        <v>4.893544733861835</v>
+        <v>4.641686182669789</v>
       </c>
       <c r="AQ11">
-        <v>15.27196652719665</v>
+        <v>16.68997668997669</v>
       </c>
     </row>
     <row r="12">
@@ -1874,7 +1865,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Financial Products Group Co., Ltd. (TSE:7148)</t>
+          <t>Uzabase, Inc. (TSE:3966)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1883,37 +1874,34 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.336</v>
-      </c>
-      <c r="E12">
-        <v>0.382</v>
+        <v>0.322</v>
       </c>
       <c r="G12">
-        <v>0.55</v>
+        <v>-0.02865761689291101</v>
       </c>
       <c r="H12">
-        <v>0.55</v>
+        <v>-0.02865761689291101</v>
       </c>
       <c r="I12">
-        <v>0.5297606591012987</v>
+        <v>-0.007843137254901961</v>
       </c>
       <c r="J12">
-        <v>0.3704731662743068</v>
+        <v>-0.007843137254901961</v>
       </c>
       <c r="K12">
-        <v>92.8</v>
+        <v>-57.9</v>
       </c>
       <c r="L12">
-        <v>0.3772357723577235</v>
+        <v>-0.4366515837104072</v>
       </c>
       <c r="M12">
-        <v>18.5</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.02158189454036397</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.1993534482758621</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1922,82 +1910,79 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>18.5</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>153.4</v>
+        <v>98</v>
       </c>
       <c r="V12">
-        <v>0.1789547363509099</v>
+        <v>0.07733585858585858</v>
       </c>
       <c r="W12">
-        <v>0.3581628714781937</v>
+        <v>-1.838095238095238</v>
       </c>
       <c r="X12">
-        <v>0.03442103119311237</v>
+        <v>0.01849806353475228</v>
       </c>
       <c r="Y12">
-        <v>0.3237418402850814</v>
+        <v>-1.85659330162999</v>
       </c>
       <c r="Z12">
-        <v>0.3601733808038561</v>
+        <v>-10.86885245901639</v>
       </c>
       <c r="AA12">
-        <v>0.1334345727941262</v>
+        <v>0.08524590163934424</v>
       </c>
       <c r="AB12">
-        <v>0.03103899797353158</v>
+        <v>0.01868627904412457</v>
       </c>
       <c r="AC12">
-        <v>0.1023955748205946</v>
+        <v>0.06655962259521966</v>
       </c>
       <c r="AD12">
-        <v>703.9</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AE12">
-        <v>193.8943893054027</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>897.7943893054028</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AG12">
-        <v>744.3943893054028</v>
+        <v>-30.40000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.511565390052748</v>
+        <v>0.05064429127959245</v>
       </c>
       <c r="AI12">
-        <v>0.7463617731427141</v>
+        <v>0.4952380952380952</v>
       </c>
       <c r="AJ12">
-        <v>0.4647833398244109</v>
+        <v>-0.02457956015523933</v>
       </c>
       <c r="AK12">
-        <v>0.7092885839990747</v>
+        <v>-0.7896103896103898</v>
       </c>
       <c r="AL12">
-        <v>10</v>
+        <v>1.05</v>
       </c>
       <c r="AM12">
-        <v>-1.4</v>
+        <v>0.984</v>
       </c>
       <c r="AN12">
-        <v>4.118782913984786</v>
+        <v>6.693069306930693</v>
       </c>
       <c r="AO12">
-        <v>13.35</v>
+        <v>-0.9904761904761905</v>
       </c>
       <c r="AP12">
-        <v>4.355730774168536</v>
+        <v>-3.00990099009901</v>
       </c>
       <c r="AQ12">
-        <v>-95.35714285714283</v>
+        <v>-1.056910569105691</v>
       </c>
     </row>
     <row r="13">
@@ -2008,7 +1993,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Anshin Guarantor Service Co., Ltd. (TSE:7183)</t>
+          <t>J-Lease Co.,Ltd. (TSE:7187)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2016,32 +2001,38 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D13">
+        <v>0.223</v>
+      </c>
+      <c r="E13">
+        <v>0.0184</v>
+      </c>
       <c r="G13">
-        <v>0.1053511705685619</v>
+        <v>0.04039039039039039</v>
       </c>
       <c r="H13">
-        <v>0.1053511705685619</v>
+        <v>0.04039039039039039</v>
       </c>
       <c r="I13">
-        <v>0.09498327759197324</v>
+        <v>0.05615615615615616</v>
       </c>
       <c r="J13">
-        <v>0.06231561853577436</v>
+        <v>0.03283549330060958</v>
       </c>
       <c r="K13">
-        <v>2.27</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
-        <v>0.07591973244147157</v>
+        <v>0.02627627627627628</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.0001688555347091932</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0.005142857142857143</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2053,76 +2044,79 @@
         <v>-0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="V13">
-        <v>0.1431492842535787</v>
+        <v>0.198874296435272</v>
       </c>
       <c r="W13">
-        <v>0.1261111111111111</v>
+        <v>0.2878289473684211</v>
       </c>
       <c r="X13">
-        <v>0.02836302513969037</v>
+        <v>0.02207222404357838</v>
       </c>
       <c r="Y13">
-        <v>0.09774808597142075</v>
+        <v>0.2657567233248427</v>
       </c>
       <c r="Z13">
-        <v>1.582010582010582</v>
+        <v>2.195845697329377</v>
       </c>
       <c r="AA13">
-        <v>0.09858396794812982</v>
+        <v>0.07210167668383112</v>
       </c>
       <c r="AB13">
-        <v>0.02833327034819631</v>
+        <v>0.02212742962057889</v>
       </c>
       <c r="AC13">
-        <v>0.07025069759993351</v>
+        <v>0.04997424706325222</v>
       </c>
       <c r="AD13">
-        <v>2.78</v>
+        <v>33.8</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>2.78</v>
+        <v>33.8</v>
       </c>
       <c r="AG13">
-        <v>-4.220000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="AH13">
-        <v>0.05379256965944272</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="AI13">
-        <v>0.1178965224766751</v>
+        <v>0.8088059344340751</v>
       </c>
       <c r="AJ13">
-        <v>-0.094449418084154</v>
+        <v>0.3032679738562091</v>
       </c>
       <c r="AK13">
-        <v>-0.2545235223160435</v>
+        <v>0.7438281500480922</v>
       </c>
       <c r="AL13">
-        <v>0.056</v>
+        <v>0.303</v>
       </c>
       <c r="AM13">
-        <v>0.056</v>
+        <v>0.303</v>
       </c>
       <c r="AN13">
-        <v>0.7965616045845271</v>
+        <v>6.365348399246704</v>
       </c>
       <c r="AO13">
-        <v>50.71428571428571</v>
+        <v>12.34323432343234</v>
       </c>
       <c r="AP13">
-        <v>-1.209169054441261</v>
+        <v>4.369114877589453</v>
       </c>
       <c r="AQ13">
-        <v>50.71428571428571</v>
+        <v>12.34323432343234</v>
       </c>
     </row>
     <row r="14">
@@ -2133,7 +2127,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Japan Investment Adviser Co., Ltd. (TSE:7172)</t>
+          <t>Acom Co., Ltd. (TSE:8572)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2142,46 +2136,46 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.7959999999999999</v>
+        <v>0.0357</v>
       </c>
       <c r="E14">
-        <v>2.039</v>
+        <v>0.256</v>
       </c>
       <c r="G14">
-        <v>0.6408450704225352</v>
+        <v>0.2854459733987504</v>
       </c>
       <c r="H14">
-        <v>0.6408450704225352</v>
+        <v>0.2854459733987504</v>
       </c>
       <c r="I14">
-        <v>0.4992175273865415</v>
+        <v>0.3132717377096145</v>
       </c>
       <c r="J14">
-        <v>0.3916851805276101</v>
+        <v>0.2470962785066754</v>
       </c>
       <c r="K14">
-        <v>35.1</v>
+        <v>550</v>
       </c>
       <c r="L14">
-        <v>0.2746478873239437</v>
+        <v>0.210816819349151</v>
       </c>
       <c r="M14">
-        <v>5.2448</v>
+        <v>73.6302</v>
       </c>
       <c r="N14">
-        <v>0.0126259027443428</v>
+        <v>0.01099959664769417</v>
       </c>
       <c r="O14">
-        <v>0.1494245014245014</v>
+        <v>0.1338730909090909</v>
       </c>
       <c r="P14">
-        <v>5.2448</v>
+        <v>73.6302</v>
       </c>
       <c r="Q14">
-        <v>0.0126259027443428</v>
+        <v>0.01099959664769417</v>
       </c>
       <c r="R14">
-        <v>0.1494245014245014</v>
+        <v>0.1338730909090909</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2190,73 +2184,73 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>236.2</v>
+        <v>773.4</v>
       </c>
       <c r="V14">
-        <v>0.5686085700529611</v>
+        <v>0.1155380271590553</v>
       </c>
       <c r="W14">
-        <v>0.1330553449583017</v>
+        <v>0.1476153412598298</v>
       </c>
       <c r="X14">
-        <v>0.0449015071996961</v>
+        <v>0.02369172078213838</v>
       </c>
       <c r="Y14">
-        <v>0.08815383775860564</v>
+        <v>0.1239236204776915</v>
       </c>
       <c r="Z14">
-        <v>0.2054992764109986</v>
+        <v>0.2719011306722464</v>
       </c>
       <c r="AA14">
-        <v>0.08049102117933522</v>
+        <v>0.06718575751086932</v>
       </c>
       <c r="AB14">
-        <v>0.03428981440407045</v>
+        <v>0.02082745155459858</v>
       </c>
       <c r="AC14">
-        <v>0.04620120677526478</v>
+        <v>0.04635830595627074</v>
       </c>
       <c r="AD14">
-        <v>1146.9</v>
+        <v>6005.1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.431817446933286</v>
       </c>
       <c r="AF14">
-        <v>1146.9</v>
+        <v>6006.531817446934</v>
       </c>
       <c r="AG14">
-        <v>910.7</v>
+        <v>5233.131817446934</v>
       </c>
       <c r="AH14">
-        <v>0.7341099660756577</v>
+        <v>0.4729391806344407</v>
       </c>
       <c r="AI14">
-        <v>0.7872734761120264</v>
+        <v>0.5685671295866701</v>
       </c>
       <c r="AJ14">
-        <v>0.6867506221250284</v>
+        <v>0.4387622920391541</v>
       </c>
       <c r="AK14">
-        <v>0.7461084712436508</v>
+        <v>0.5344876172175731</v>
       </c>
       <c r="AL14">
-        <v>6.85</v>
+        <v>0.18</v>
       </c>
       <c r="AM14">
-        <v>5.05</v>
+        <v>-0.07600000000000001</v>
       </c>
       <c r="AN14">
-        <v>17.80900621118012</v>
+        <v>7.043436342118815</v>
       </c>
       <c r="AO14">
-        <v>9.313868613138686</v>
+        <v>4537.777777777777</v>
       </c>
       <c r="AP14">
-        <v>14.14130434782609</v>
+        <v>6.137987848013192</v>
       </c>
       <c r="AQ14">
-        <v>12.63366336633663</v>
+        <v>-10747.36842105263</v>
       </c>
     </row>
     <row r="15">
@@ -2267,7 +2261,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>J-Lease Co.,Ltd. (TSE:7187)</t>
+          <t>Japan Investment Adviser Co., Ltd. (TSE:7172)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2276,115 +2270,121 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.244</v>
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.5489999999999999</v>
       </c>
       <c r="G15">
-        <v>-0.0006040268456375838</v>
+        <v>0.3658185309649544</v>
       </c>
       <c r="H15">
-        <v>-0.0006040268456375838</v>
+        <v>0.3658185309649544</v>
       </c>
       <c r="I15">
-        <v>0.03003355704697987</v>
+        <v>0.4435909745559289</v>
       </c>
       <c r="J15">
-        <v>0.0229705807075418</v>
+        <v>0.295555979570868</v>
       </c>
       <c r="K15">
-        <v>0.722</v>
+        <v>56.8</v>
       </c>
       <c r="L15">
-        <v>0.01211409395973154</v>
+        <v>0.2726836293807009</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>10.764</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.02786435412891535</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0.1895070422535211</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>10.764</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.02786435412891535</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0.1895070422535211</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>8.949999999999999</v>
+        <v>234.1</v>
       </c>
       <c r="V15">
-        <v>0.3314814814814814</v>
+        <v>0.6060056950556562</v>
       </c>
       <c r="W15">
-        <v>0.1415686274509804</v>
+        <v>0.1839378238341969</v>
       </c>
       <c r="X15">
-        <v>0.03553582366986281</v>
+        <v>0.02813733450289814</v>
       </c>
       <c r="Y15">
-        <v>0.1060328037811176</v>
+        <v>0.1558004893312987</v>
       </c>
       <c r="Z15">
-        <v>3.143459915611814</v>
+        <v>0.1708077080770808</v>
       </c>
       <c r="AA15">
-        <v>0.07220709969248373</v>
+        <v>0.05048323947897648</v>
       </c>
       <c r="AB15">
-        <v>0.03127500738439166</v>
+        <v>0.02447535110004591</v>
       </c>
       <c r="AC15">
-        <v>0.04093209230809208</v>
+        <v>0.02600788837893056</v>
       </c>
       <c r="AD15">
-        <v>33.2</v>
+        <v>625.7</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>33.2</v>
+        <v>625.7</v>
       </c>
       <c r="AG15">
-        <v>24.25</v>
+        <v>391.6</v>
       </c>
       <c r="AH15">
-        <v>0.5514950166112957</v>
+        <v>0.6182806324110672</v>
       </c>
       <c r="AI15">
-        <v>0.8452138492871691</v>
+        <v>0.6320840488938276</v>
       </c>
       <c r="AJ15">
-        <v>0.4731707317073172</v>
+        <v>0.503406607533102</v>
       </c>
       <c r="AK15">
-        <v>0.7995384108143752</v>
+        <v>0.5181264884890183</v>
       </c>
       <c r="AL15">
-        <v>0.231</v>
+        <v>7.81</v>
       </c>
       <c r="AM15">
-        <v>0.231</v>
+        <v>5.129999999999999</v>
       </c>
       <c r="AN15">
-        <v>12.16117216117216</v>
+        <v>6.67769477054429</v>
       </c>
       <c r="AO15">
-        <v>7.748917748917749</v>
+        <v>11.83098591549296</v>
       </c>
       <c r="AP15">
-        <v>8.882783882783885</v>
+        <v>4.179295624332978</v>
       </c>
       <c r="AQ15">
-        <v>7.748917748917749</v>
+        <v>18.01169590643275</v>
       </c>
     </row>
     <row r="16">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORIX Corporation (TSE:8591)</t>
+          <t>Asax Co., Ltd. (TSE:8772)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2404,121 +2404,112 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.0556</v>
+        <v>-0.00304</v>
       </c>
       <c r="E16">
-        <v>0.0572</v>
+        <v>0.0226</v>
       </c>
       <c r="G16">
-        <v>0.3040456229746977</v>
+        <v>0.6731793960923623</v>
       </c>
       <c r="H16">
-        <v>0.3040456229746977</v>
+        <v>0.6731793960923623</v>
       </c>
       <c r="I16">
-        <v>0.1724046200562072</v>
+        <v>0.7015985790408527</v>
       </c>
       <c r="J16">
-        <v>0.1419204934853514</v>
+        <v>0.4547069271758438</v>
       </c>
       <c r="K16">
-        <v>3033</v>
+        <v>25.6</v>
       </c>
       <c r="L16">
-        <v>0.1439002519321918</v>
+        <v>0.4547069271758438</v>
       </c>
       <c r="M16">
-        <v>901.2090000000001</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.04233313760950749</v>
+        <v>-0</v>
       </c>
       <c r="O16">
-        <v>0.2971345202769535</v>
+        <v>-0</v>
       </c>
       <c r="P16">
-        <v>901.2</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.04233271484604364</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>0.2971315529179031</v>
+        <v>-0</v>
       </c>
       <c r="S16">
-        <v>0.009000000000014552</v>
-      </c>
-      <c r="T16">
-        <v>9.986584687918731e-06</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>9080.700000000001</v>
+        <v>43.1</v>
       </c>
       <c r="V16">
-        <v>0.4265542429010969</v>
+        <v>0.1883741258741259</v>
       </c>
       <c r="W16">
-        <v>0.1227547576069096</v>
+        <v>0.0770388203430635</v>
       </c>
       <c r="X16">
-        <v>0.04050124567168058</v>
+        <v>0.0273602163595375</v>
       </c>
       <c r="Y16">
-        <v>0.08225351193522898</v>
+        <v>0.04967860398352601</v>
       </c>
       <c r="Z16">
-        <v>0.4355910941825528</v>
+        <v>0.09068943298969072</v>
       </c>
       <c r="AA16">
-        <v>0.06181930304421207</v>
+        <v>0.04123711340206186</v>
       </c>
       <c r="AB16">
-        <v>0.03066379429249956</v>
+        <v>0.02153555695751823</v>
       </c>
       <c r="AC16">
-        <v>0.03115550875171251</v>
+        <v>0.01970155644454364</v>
       </c>
       <c r="AD16">
-        <v>42974.8</v>
+        <v>341.7</v>
       </c>
       <c r="AE16">
-        <v>485.5529130665752</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>43460.35291306658</v>
+        <v>341.7</v>
       </c>
       <c r="AG16">
-        <v>34379.65291306657</v>
+        <v>298.6</v>
       </c>
       <c r="AH16">
-        <v>0.6712142525739804</v>
+        <v>0.5989482909728309</v>
       </c>
       <c r="AI16">
-        <v>0.6073371937063397</v>
+        <v>0.4859906129995734</v>
       </c>
       <c r="AJ16">
-        <v>0.6175820664780292</v>
+        <v>0.5661736822146378</v>
       </c>
       <c r="AK16">
-        <v>0.5502667942329081</v>
+        <v>0.4524242424242424</v>
       </c>
       <c r="AL16">
-        <v>875.9</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>864.5</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>6.583653772500958</v>
-      </c>
-      <c r="AO16">
-        <v>4.180271720516041</v>
+        <v>8.585427135678392</v>
       </c>
       <c r="AP16">
-        <v>5.266894356655163</v>
-      </c>
-      <c r="AQ16">
-        <v>4.235396182764604</v>
+        <v>7.50251256281407</v>
       </c>
     </row>
     <row r="17">
@@ -2529,7 +2520,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Acom Co., Ltd. (TSE:8572)</t>
+          <t>Money Partners Group Co.,Ltd. (TSE:8732)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2538,46 +2529,46 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0593</v>
+        <v>-0.0407</v>
       </c>
       <c r="E17">
-        <v>0.338</v>
+        <v>-0.48</v>
       </c>
       <c r="G17">
-        <v>0.2217517626094367</v>
+        <v>0.2107438016528926</v>
       </c>
       <c r="H17">
-        <v>0.2213527543193616</v>
+        <v>0.2107438016528926</v>
       </c>
       <c r="I17">
-        <v>0.2525367055272223</v>
+        <v>0.005567317392045231</v>
       </c>
       <c r="J17">
-        <v>0.1915795697103066</v>
+        <v>0.005567317392045231</v>
       </c>
       <c r="K17">
-        <v>398.2</v>
+        <v>-3.81</v>
       </c>
       <c r="L17">
-        <v>0.1542573797164329</v>
+        <v>-0.07871900826446282</v>
       </c>
       <c r="M17">
-        <v>43.8648</v>
+        <v>0.8904000000000001</v>
       </c>
       <c r="N17">
-        <v>0.006132278312899302</v>
+        <v>0.01389079563182528</v>
       </c>
       <c r="O17">
-        <v>0.1101577096936213</v>
+        <v>-0.2337007874015748</v>
       </c>
       <c r="P17">
-        <v>43.8648</v>
+        <v>0.8904000000000001</v>
       </c>
       <c r="Q17">
-        <v>0.006132278312899302</v>
+        <v>0.01389079563182528</v>
       </c>
       <c r="R17">
-        <v>0.1101577096936213</v>
+        <v>-0.2337007874015748</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2586,73 +2577,73 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>760.6</v>
+        <v>130.8</v>
       </c>
       <c r="V17">
-        <v>0.1063315205994604</v>
+        <v>2.040561622464899</v>
       </c>
       <c r="W17">
-        <v>0.1259449030584812</v>
+        <v>-0.03065164923572003</v>
       </c>
       <c r="X17">
-        <v>0.03370607284028566</v>
+        <v>0.0212661679842756</v>
       </c>
       <c r="Y17">
-        <v>0.09223883021819554</v>
+        <v>-0.05191781721999563</v>
       </c>
       <c r="Z17">
-        <v>0.2943321481307153</v>
+        <v>6.96131517506605</v>
       </c>
       <c r="AA17">
-        <v>0.05638802629079265</v>
+        <v>0.03875585104565361</v>
       </c>
       <c r="AB17">
-        <v>0.02885775787179597</v>
+        <v>0.02005082118645211</v>
       </c>
       <c r="AC17">
-        <v>0.02753026841899669</v>
+        <v>0.01870502985920149</v>
       </c>
       <c r="AD17">
-        <v>6654.6</v>
+        <v>28.4</v>
       </c>
       <c r="AE17">
-        <v>1.063741760141739</v>
+        <v>3.852709191125054</v>
       </c>
       <c r="AF17">
-        <v>6655.663741760142</v>
+        <v>32.25270919112505</v>
       </c>
       <c r="AG17">
-        <v>5895.063741760142</v>
+        <v>-98.54729080887496</v>
       </c>
       <c r="AH17">
-        <v>0.4819883855085621</v>
+        <v>0.3347358830061399</v>
       </c>
       <c r="AI17">
-        <v>0.6278357236089426</v>
+        <v>0.2086842046310574</v>
       </c>
       <c r="AJ17">
-        <v>0.4517925938416315</v>
+        <v>2.860813970992614</v>
       </c>
       <c r="AK17">
-        <v>0.5990696986883631</v>
+        <v>-4.148886344539434</v>
       </c>
       <c r="AL17">
-        <v>0.25</v>
+        <v>0.133</v>
       </c>
       <c r="AM17">
-        <v>-1.42</v>
+        <v>0.105</v>
       </c>
       <c r="AN17">
-        <v>9.449724585387052</v>
+        <v>4.074605451936872</v>
       </c>
       <c r="AO17">
-        <v>2604.8</v>
+        <v>-11.72932330827068</v>
       </c>
       <c r="AP17">
-        <v>8.371161117562979</v>
+        <v>-14.13877916913557</v>
       </c>
       <c r="AQ17">
-        <v>-458.5915492957747</v>
+        <v>-14.85714285714286</v>
       </c>
     </row>
     <row r="18">
@@ -2663,7 +2654,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Asax Co., Ltd. (TSE:8772)</t>
+          <t>ORIX Corporation (TSE:8591)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2672,112 +2663,124 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0159</v>
+        <v>-0.0136</v>
       </c>
       <c r="E18">
-        <v>0.0557</v>
+        <v>-0.0142</v>
+      </c>
+      <c r="F18">
+        <v>0.0269</v>
       </c>
       <c r="G18">
-        <v>0.7265917602996255</v>
+        <v>0.3031481350079235</v>
       </c>
       <c r="H18">
-        <v>0.7265917602996255</v>
+        <v>0.3031481350079235</v>
       </c>
       <c r="I18">
-        <v>0.698501872659176</v>
+        <v>0.1475057709317332</v>
       </c>
       <c r="J18">
-        <v>0.4531835205992509</v>
+        <v>0.1115439031047759</v>
       </c>
       <c r="K18">
-        <v>24.2</v>
+        <v>2250.8</v>
       </c>
       <c r="L18">
-        <v>0.4531835205992509</v>
+        <v>0.1064736630478488</v>
       </c>
       <c r="M18">
-        <v>-0</v>
+        <v>1453.7</v>
       </c>
       <c r="N18">
-        <v>-0</v>
+        <v>0.07709727717258716</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>0.6458592500444286</v>
       </c>
       <c r="P18">
-        <v>-0</v>
+        <v>913.6</v>
       </c>
       <c r="Q18">
-        <v>-0</v>
+        <v>0.04845296307689044</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>0.4059001244002132</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>540.1</v>
+      </c>
+      <c r="T18">
+        <v>0.371534704547018</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>11212</v>
       </c>
       <c r="V18">
-        <v>0.09442870632672332</v>
+        <v>0.5946307158691939</v>
       </c>
       <c r="W18">
-        <v>0.08126259234385493</v>
+        <v>0.08213699230011313</v>
       </c>
       <c r="X18">
-        <v>0.036923762910917</v>
+        <v>0.03335755020554238</v>
       </c>
       <c r="Y18">
-        <v>0.04433882943293792</v>
+        <v>0.04877944209457075</v>
       </c>
       <c r="Z18">
-        <v>0.09327510917030565</v>
+        <v>0.3699635759712341</v>
       </c>
       <c r="AA18">
-        <v>0.04227074235807859</v>
+        <v>0.04126718127043173</v>
       </c>
       <c r="AB18">
-        <v>0.02905166043623199</v>
+        <v>0.0238640967189487</v>
       </c>
       <c r="AC18">
-        <v>0.01321908192184661</v>
+        <v>0.01740308455148302</v>
       </c>
       <c r="AD18">
-        <v>308.5</v>
+        <v>44234.3</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>2301.008776943127</v>
       </c>
       <c r="AF18">
-        <v>308.5</v>
+        <v>46535.30877694313</v>
       </c>
       <c r="AG18">
-        <v>288.5</v>
+        <v>35323.30877694313</v>
       </c>
       <c r="AH18">
-        <v>0.5929271574091871</v>
+        <v>0.7116501663207473</v>
       </c>
       <c r="AI18">
-        <v>0.4814294631710362</v>
+        <v>0.6174689888548859</v>
       </c>
       <c r="AJ18">
-        <v>0.5766540075954427</v>
+        <v>0.6519776785816589</v>
       </c>
       <c r="AK18">
-        <v>0.4647229381443299</v>
+        <v>0.5506137544579256</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>852.2</v>
       </c>
       <c r="AN18">
-        <v>8.204787234042552</v>
+        <v>6.793884102044265</v>
+      </c>
+      <c r="AO18">
+        <v>3.658632676709154</v>
       </c>
       <c r="AP18">
-        <v>7.672872340425531</v>
+        <v>5.425257457024856</v>
+      </c>
+      <c r="AQ18">
+        <v>3.704998826566534</v>
       </c>
     </row>
     <row r="19">
@@ -2788,7 +2791,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kyushu Leasing Service Co., Ltd. (TSE:8596)</t>
+          <t>Premium Group Co., Ltd. (TSE:7199)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2796,122 +2799,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D19">
-        <v>0.0536</v>
-      </c>
-      <c r="E19">
-        <v>0.0463</v>
-      </c>
       <c r="G19">
-        <v>0.1862099253403601</v>
+        <v>0.1486939048894843</v>
       </c>
       <c r="H19">
-        <v>0.1862099253403601</v>
+        <v>0.1486939048894843</v>
       </c>
       <c r="I19">
-        <v>0.1443535090406892</v>
+        <v>0.03683858004018754</v>
       </c>
       <c r="J19">
-        <v>0.09606974912018279</v>
+        <v>0.02187760569733586</v>
       </c>
       <c r="K19">
-        <v>19.2</v>
+        <v>8.85</v>
       </c>
       <c r="L19">
-        <v>0.08432147562582346</v>
+        <v>0.05927662424648358</v>
       </c>
       <c r="M19">
-        <v>2.938</v>
+        <v>16.8016</v>
       </c>
       <c r="N19">
-        <v>0.02390561432058584</v>
+        <v>0.05842002781641168</v>
       </c>
       <c r="O19">
-        <v>0.1530208333333334</v>
+        <v>1.898485875706215</v>
       </c>
       <c r="P19">
-        <v>2.938</v>
+        <v>5.4016</v>
       </c>
       <c r="Q19">
-        <v>0.02390561432058584</v>
+        <v>0.01878164116828929</v>
       </c>
       <c r="R19">
-        <v>0.1530208333333334</v>
+        <v>0.6103502824858758</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.6785068088753452</v>
       </c>
       <c r="U19">
-        <v>42.8</v>
+        <v>89.8</v>
       </c>
       <c r="V19">
-        <v>0.3482506102522375</v>
+        <v>0.3122392211404729</v>
       </c>
       <c r="W19">
-        <v>0.07872078720787207</v>
+        <v>0.1344984802431611</v>
       </c>
       <c r="X19">
-        <v>0.0724826646584821</v>
+        <v>0.02214967170726874</v>
       </c>
       <c r="Y19">
-        <v>0.006238122549389963</v>
+        <v>0.1123488085358924</v>
       </c>
       <c r="Z19">
-        <v>0.2160641811478801</v>
+        <v>1.321238938053097</v>
       </c>
       <c r="AA19">
-        <v>0.02075723167673457</v>
+        <v>0.02890554451869243</v>
       </c>
       <c r="AB19">
-        <v>0.02955182456200402</v>
+        <v>0.02217512608283509</v>
       </c>
       <c r="AC19">
-        <v>-0.008794592885269459</v>
+        <v>0.006730418435857338</v>
       </c>
       <c r="AD19">
-        <v>877.3</v>
+        <v>186</v>
       </c>
       <c r="AE19">
-        <v>16.25352995717542</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>893.5535299571753</v>
+        <v>186</v>
       </c>
       <c r="AG19">
-        <v>850.7535299571754</v>
+        <v>96.2</v>
       </c>
       <c r="AH19">
-        <v>0.8790894060792155</v>
+        <v>0.3927364864864865</v>
       </c>
       <c r="AI19">
-        <v>0.7679522316348116</v>
+        <v>0.7539521686258615</v>
       </c>
       <c r="AJ19">
-        <v>0.8737744010383185</v>
+        <v>0.2506513809275664</v>
       </c>
       <c r="AK19">
-        <v>0.7590906539368054</v>
+        <v>0.6131293817718292</v>
       </c>
       <c r="AL19">
-        <v>0.768</v>
+        <v>0.379</v>
       </c>
       <c r="AM19">
-        <v>-0.492</v>
+        <v>0.351</v>
       </c>
       <c r="AN19">
-        <v>17.75192229866451</v>
+        <v>11.69811320754717</v>
       </c>
       <c r="AO19">
-        <v>41.796875</v>
+        <v>14.51187335092348</v>
       </c>
       <c r="AP19">
-        <v>17.21476183644628</v>
+        <v>6.050314465408805</v>
       </c>
       <c r="AQ19">
-        <v>-65.2439024390244</v>
+        <v>15.66951566951567</v>
       </c>
     </row>
     <row r="20">
@@ -2922,7 +2919,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Orient Corporation (TSE:8585)</t>
+          <t>Kyushu Leasing Service Co., Ltd. (TSE:8596)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2931,115 +2928,121 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.0305</v>
+        <v>0.0809</v>
       </c>
       <c r="E20">
-        <v>0.0119</v>
+        <v>0.117</v>
       </c>
       <c r="G20">
-        <v>0.1552622126436782</v>
+        <v>0.1701481200151918</v>
       </c>
       <c r="H20">
-        <v>0.1552622126436782</v>
+        <v>0.1701481200151918</v>
       </c>
       <c r="I20">
-        <v>0.1103178879310345</v>
+        <v>0.1331935444024368</v>
       </c>
       <c r="J20">
-        <v>0.08936016467817022</v>
+        <v>0.09316065324777183</v>
       </c>
       <c r="K20">
-        <v>200.3</v>
+        <v>24.9</v>
       </c>
       <c r="L20">
-        <v>0.08993354885057472</v>
+        <v>0.09456893277630078</v>
       </c>
       <c r="M20">
-        <v>227.6249</v>
+        <v>3.3369</v>
       </c>
       <c r="N20">
-        <v>0.0874504975219947</v>
+        <v>0.02480966542750929</v>
       </c>
       <c r="O20">
-        <v>1.136419870194708</v>
+        <v>0.1340120481927711</v>
       </c>
       <c r="P20">
-        <v>32.6249</v>
+        <v>3.3369</v>
       </c>
       <c r="Q20">
-        <v>0.01253405816589189</v>
+        <v>0.02480966542750929</v>
       </c>
       <c r="R20">
-        <v>0.1628801797304044</v>
+        <v>0.1340120481927711</v>
       </c>
       <c r="S20">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.8566725345074286</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>2675.1</v>
+        <v>53.7</v>
       </c>
       <c r="V20">
-        <v>1.027738291905183</v>
+        <v>0.3992565055762082</v>
       </c>
       <c r="W20">
-        <v>0.08327443562133621</v>
+        <v>0.09270290394638867</v>
       </c>
       <c r="X20">
-        <v>0.05944815093535467</v>
+        <v>0.06060166216714974</v>
       </c>
       <c r="Y20">
-        <v>0.02382628468598154</v>
+        <v>0.03210124177923893</v>
       </c>
       <c r="Z20">
-        <v>0.1892188097362049</v>
+        <v>0.234315062972319</v>
       </c>
       <c r="AA20">
-        <v>0.01690862399823463</v>
+        <v>0.02182894433229404</v>
       </c>
       <c r="AB20">
-        <v>0.0294784640799555</v>
+        <v>0.02307749689782557</v>
       </c>
       <c r="AC20">
-        <v>-0.01256984008172087</v>
+        <v>-0.001248552565531538</v>
       </c>
       <c r="AD20">
-        <v>13377.3</v>
+        <v>906.8</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>20.60069879419188</v>
       </c>
       <c r="AF20">
-        <v>13377.3</v>
+        <v>927.4006987941918</v>
       </c>
       <c r="AG20">
-        <v>10702.2</v>
+        <v>873.7006987941918</v>
       </c>
       <c r="AH20">
-        <v>0.8371171825133603</v>
+        <v>0.8733403225435982</v>
       </c>
       <c r="AI20">
-        <v>0.8454178331953511</v>
+        <v>0.7581134382644686</v>
       </c>
       <c r="AJ20">
-        <v>0.8043682497688857</v>
+        <v>0.8665940222409466</v>
       </c>
       <c r="AK20">
-        <v>0.813966930834639</v>
+        <v>0.7470076750936792</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>0.645</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>-0.7150000000000001</v>
       </c>
       <c r="AN20">
-        <v>29.98050201703272</v>
+        <v>17.57704981585578</v>
+      </c>
+      <c r="AO20">
+        <v>53.95348837209302</v>
       </c>
       <c r="AP20">
-        <v>23.98520842671448</v>
+        <v>16.93546615224252</v>
+      </c>
+      <c r="AQ20">
+        <v>-48.67132867132866</v>
       </c>
     </row>
     <row r="21">
@@ -3050,7 +3053,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NEC Capital Solutions Limited (TSE:8793)</t>
+          <t>Wedge Holdings CO., LTD. (JASDAQ:2388)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3059,121 +3062,115 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.00239</v>
-      </c>
-      <c r="E21">
-        <v>0.108</v>
+        <v>-0.0225</v>
       </c>
       <c r="G21">
-        <v>0.09042157008788916</v>
+        <v>0.09170068027210884</v>
       </c>
       <c r="H21">
-        <v>0.09042157008788916</v>
+        <v>0.09170068027210884</v>
       </c>
       <c r="I21">
-        <v>0.05436634281371957</v>
+        <v>0.04258503401360544</v>
       </c>
       <c r="J21">
-        <v>0.05103267985484813</v>
+        <v>0.04258503401360544</v>
       </c>
       <c r="K21">
-        <v>83.90000000000001</v>
+        <v>-17.4</v>
       </c>
       <c r="L21">
-        <v>0.0416604598043597</v>
+        <v>-0.236734693877551</v>
       </c>
       <c r="M21">
-        <v>11.9325</v>
+        <v>-0</v>
       </c>
       <c r="N21">
-        <v>0.02410606060606061</v>
+        <v>-0</v>
       </c>
       <c r="O21">
-        <v>0.142222884386174</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.9325</v>
+        <v>-0</v>
       </c>
       <c r="Q21">
-        <v>0.02410606060606061</v>
+        <v>-0</v>
       </c>
       <c r="R21">
-        <v>0.142222884386174</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
-        <v>181</v>
+        <v>123.1</v>
       </c>
       <c r="V21">
-        <v>0.3656565656565657</v>
+        <v>3.663690476190476</v>
       </c>
       <c r="W21">
-        <v>0.1099174636447007</v>
+        <v>-0.2489270386266094</v>
       </c>
       <c r="X21">
-        <v>0.116858451058001</v>
+        <v>0.05232733068366532</v>
       </c>
       <c r="Y21">
-        <v>-0.006940987413300334</v>
+        <v>-0.3012543693102747</v>
       </c>
       <c r="Z21">
-        <v>0.2861036190114986</v>
+        <v>0.4637223974763407</v>
       </c>
       <c r="AA21">
-        <v>0.01460063439432724</v>
+        <v>0.01974763406940063</v>
       </c>
       <c r="AB21">
-        <v>0.02965058285423135</v>
+        <v>0.02681144790129863</v>
       </c>
       <c r="AC21">
-        <v>-0.0150499484599041</v>
+        <v>-0.007063813831897997</v>
       </c>
       <c r="AD21">
-        <v>7109.9</v>
+        <v>186.5</v>
       </c>
       <c r="AE21">
-        <v>80.55811103725081</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>7190.45811103725</v>
+        <v>186.5</v>
       </c>
       <c r="AG21">
-        <v>7009.45811103725</v>
+        <v>63.40000000000001</v>
       </c>
       <c r="AH21">
-        <v>0.9355926487597246</v>
+        <v>0.8473421172194457</v>
       </c>
       <c r="AI21">
-        <v>0.8804112781066318</v>
+        <v>0.6078878748370273</v>
       </c>
       <c r="AJ21">
-        <v>0.9340392080712697</v>
+        <v>0.6536082474226804</v>
       </c>
       <c r="AK21">
-        <v>0.8777008936687399</v>
+        <v>0.3451279259662494</v>
       </c>
       <c r="AL21">
-        <v>0.176</v>
+        <v>7.01</v>
       </c>
       <c r="AM21">
-        <v>-6.474</v>
+        <v>5.1</v>
       </c>
       <c r="AN21">
-        <v>29.63693205502292</v>
+        <v>27.67062314540059</v>
       </c>
       <c r="AO21">
-        <v>653.409090909091</v>
+        <v>0.4465049928673324</v>
       </c>
       <c r="AP21">
-        <v>29.21824973337745</v>
+        <v>9.406528189910979</v>
       </c>
       <c r="AQ21">
-        <v>-17.76336113685511</v>
+        <v>0.6137254901960785</v>
       </c>
     </row>
     <row r="22">
@@ -3193,121 +3190,121 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.04</v>
+        <v>0.0608</v>
       </c>
       <c r="E22">
-        <v>0.111</v>
+        <v>0.07339999999999999</v>
       </c>
       <c r="G22">
-        <v>0.1841855272307044</v>
+        <v>0.2071305819441173</v>
       </c>
       <c r="H22">
-        <v>0.1841855272307044</v>
+        <v>0.2071305819441173</v>
       </c>
       <c r="I22">
-        <v>0.07365934961178755</v>
+        <v>0.07517360393703815</v>
       </c>
       <c r="J22">
-        <v>0.0503192040230764</v>
+        <v>0.05315604797589428</v>
       </c>
       <c r="K22">
-        <v>501.6</v>
+        <v>538.6</v>
       </c>
       <c r="L22">
-        <v>0.04912397535966467</v>
+        <v>0.04698472516640061</v>
       </c>
       <c r="M22">
-        <v>126.739</v>
+        <v>158.768</v>
       </c>
       <c r="N22">
-        <v>0.02232302950242184</v>
+        <v>0.01640894198869332</v>
       </c>
       <c r="O22">
-        <v>0.2526694577352472</v>
+        <v>0.2947790568139621</v>
       </c>
       <c r="P22">
-        <v>126.72</v>
+        <v>158.73</v>
       </c>
       <c r="Q22">
-        <v>0.02231968295904888</v>
+        <v>0.01640501462426491</v>
       </c>
       <c r="R22">
-        <v>0.2526315789473684</v>
+        <v>0.2947085035276643</v>
       </c>
       <c r="S22">
-        <v>0.01900000000000546</v>
+        <v>0.03800000000001091</v>
       </c>
       <c r="T22">
-        <v>0.0001499143909925552</v>
+        <v>0.0002393429406430194</v>
       </c>
       <c r="U22">
-        <v>1054.5</v>
+        <v>2299.6</v>
       </c>
       <c r="V22">
-        <v>0.1857331571994716</v>
+        <v>0.2376675589363043</v>
       </c>
       <c r="W22">
-        <v>0.1378135560623129</v>
+        <v>0.1322529158993248</v>
       </c>
       <c r="X22">
-        <v>0.05919436420020012</v>
+        <v>0.04445975623401834</v>
       </c>
       <c r="Y22">
-        <v>0.07861919186211273</v>
+        <v>0.08779315966530642</v>
       </c>
       <c r="Z22">
-        <v>0.3534264614850317</v>
+        <v>0.3614824597466079</v>
       </c>
       <c r="AA22">
-        <v>0.01778413822261926</v>
+        <v>0.01921497897273496</v>
       </c>
       <c r="AB22">
-        <v>0.03295666420460051</v>
+        <v>0.02676790623991095</v>
       </c>
       <c r="AC22">
-        <v>-0.01517252598198125</v>
+        <v>-0.007552927267175987</v>
       </c>
       <c r="AD22">
-        <v>28889.9</v>
+        <v>41241.4</v>
       </c>
       <c r="AE22">
-        <v>53.35873524499296</v>
+        <v>94.31212994275393</v>
       </c>
       <c r="AF22">
-        <v>28943.258735245</v>
+        <v>41335.71212994275</v>
       </c>
       <c r="AG22">
-        <v>27888.758735245</v>
+        <v>39036.11212994275</v>
       </c>
       <c r="AH22">
-        <v>0.8360087933537942</v>
+        <v>0.8103228356950239</v>
       </c>
       <c r="AI22">
-        <v>0.8531125614553091</v>
+        <v>0.8657906267047317</v>
       </c>
       <c r="AJ22">
-        <v>0.8308569315162149</v>
+        <v>0.8013685063863097</v>
       </c>
       <c r="AK22">
-        <v>0.8484005860358396</v>
+        <v>0.8589991948351849</v>
       </c>
       <c r="AL22">
-        <v>6.02</v>
+        <v>36.3</v>
       </c>
       <c r="AM22">
-        <v>-4.68</v>
+        <v>25.5</v>
       </c>
       <c r="AN22">
-        <v>14.36951007212136</v>
+        <v>14.98161871548968</v>
       </c>
       <c r="AO22">
-        <v>123.3720930232558</v>
+        <v>23.53719008264463</v>
       </c>
       <c r="AP22">
-        <v>13.87155371064163</v>
+        <v>14.18051152642501</v>
       </c>
       <c r="AQ22">
-        <v>-158.6965811965812</v>
+        <v>33.50588235294118</v>
       </c>
     </row>
     <row r="23">
@@ -3318,7 +3315,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mitsubishi UFJ Lease &amp; Finance Company Limited (TSE:8593)</t>
+          <t>Financial Products Group Co., Ltd. (TSE:7148)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3327,121 +3324,121 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.0457</v>
+        <v>-0.0366</v>
       </c>
       <c r="E23">
-        <v>0.136</v>
+        <v>-0.291</v>
       </c>
       <c r="G23">
-        <v>0.2292860865033872</v>
+        <v>0.1377593360995851</v>
       </c>
       <c r="H23">
-        <v>0.2292860865033872</v>
+        <v>0.1377593360995851</v>
       </c>
       <c r="I23">
-        <v>0.1063911521976821</v>
+        <v>0.1273057790568813</v>
       </c>
       <c r="J23">
-        <v>0.07869381598849116</v>
+        <v>0.08713724752837466</v>
       </c>
       <c r="K23">
-        <v>687.5</v>
+        <v>10.8</v>
       </c>
       <c r="L23">
-        <v>0.0814226159458051</v>
+        <v>0.08962655601659751</v>
       </c>
       <c r="M23">
-        <v>164.7</v>
+        <v>28.3086</v>
       </c>
       <c r="N23">
-        <v>0.02850713976633492</v>
+        <v>0.06804951923076923</v>
       </c>
       <c r="O23">
-        <v>0.2395636363636363</v>
+        <v>2.621166666666666</v>
       </c>
       <c r="P23">
-        <v>164.7</v>
+        <v>9.3086</v>
       </c>
       <c r="Q23">
-        <v>0.02850713976633492</v>
+        <v>0.02237644230769231</v>
       </c>
       <c r="R23">
-        <v>0.2395636363636363</v>
+        <v>0.8619074074074073</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.6711741308295006</v>
       </c>
       <c r="U23">
-        <v>1563.8</v>
+        <v>257.5</v>
       </c>
       <c r="V23">
-        <v>0.2706707053223713</v>
+        <v>0.6189903846153846</v>
       </c>
       <c r="W23">
-        <v>0.105430232023187</v>
+        <v>0.03564356435643565</v>
       </c>
       <c r="X23">
-        <v>0.07221688975837341</v>
+        <v>0.03175630954636147</v>
       </c>
       <c r="Y23">
-        <v>0.03321334226481358</v>
+        <v>0.003887254810074181</v>
       </c>
       <c r="Z23">
-        <v>0.2021180875578447</v>
+        <v>0.1412399135107501</v>
       </c>
       <c r="AA23">
-        <v>0.01590544359022278</v>
+        <v>0.01230725730447246</v>
       </c>
       <c r="AB23">
-        <v>0.03148150655420785</v>
+        <v>0.02203744593010717</v>
       </c>
       <c r="AC23">
-        <v>-0.01557606296398507</v>
+        <v>-0.009730188625634715</v>
       </c>
       <c r="AD23">
-        <v>41691.8</v>
+        <v>910.5</v>
       </c>
       <c r="AE23">
-        <v>62.87833651825734</v>
+        <v>7.948268118229004</v>
       </c>
       <c r="AF23">
-        <v>41754.67833651826</v>
+        <v>918.448268118229</v>
       </c>
       <c r="AG23">
-        <v>40190.87833651826</v>
+        <v>660.948268118229</v>
       </c>
       <c r="AH23">
-        <v>0.8784507632051605</v>
+        <v>0.6882606767614738</v>
       </c>
       <c r="AI23">
-        <v>0.8529460981196539</v>
+        <v>0.7789742735334154</v>
       </c>
       <c r="AJ23">
-        <v>0.8743157751246963</v>
+        <v>0.6137233214303931</v>
       </c>
       <c r="AK23">
-        <v>0.8480935036342578</v>
+        <v>0.717215029298317</v>
       </c>
       <c r="AL23">
-        <v>23.6</v>
+        <v>9.06</v>
       </c>
       <c r="AM23">
-        <v>-3.5</v>
+        <v>-8.94</v>
       </c>
       <c r="AN23">
-        <v>19.05039981722641</v>
+        <v>46.14799797263051</v>
       </c>
       <c r="AO23">
-        <v>37.50423728813559</v>
+        <v>1.52317880794702</v>
       </c>
       <c r="AP23">
-        <v>18.36457771830855</v>
+        <v>33.4996587997075</v>
       </c>
       <c r="AQ23">
-        <v>-252.8857142857143</v>
+        <v>-1.543624161073826</v>
       </c>
     </row>
     <row r="24">
@@ -3452,7 +3449,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ricoh Leasing Company, Ltd. (TSE:8566)</t>
+          <t>Fuyo General Lease Co., Ltd. (TSE:8424)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3461,121 +3458,121 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.0505</v>
+        <v>0.0793</v>
       </c>
       <c r="E24">
-        <v>0.0434</v>
+        <v>0.0951</v>
       </c>
       <c r="G24">
-        <v>0.08708838821490468</v>
+        <v>0.1086902770707585</v>
       </c>
       <c r="H24">
-        <v>0.08708838821490468</v>
+        <v>0.1086902770707585</v>
       </c>
       <c r="I24">
-        <v>0.05330629693569411</v>
+        <v>0.05794925523012702</v>
       </c>
       <c r="J24">
-        <v>0.03673944048401587</v>
+        <v>0.04042838028663003</v>
       </c>
       <c r="K24">
-        <v>112.8</v>
+        <v>249.7</v>
       </c>
       <c r="L24">
-        <v>0.03759498733502199</v>
+        <v>0.03631735873754636</v>
       </c>
       <c r="M24">
-        <v>43.1088</v>
+        <v>61.2</v>
       </c>
       <c r="N24">
-        <v>0.03690190035952748</v>
+        <v>0.0308919287264651</v>
       </c>
       <c r="O24">
-        <v>0.3821702127659575</v>
+        <v>0.2450941129355227</v>
       </c>
       <c r="P24">
-        <v>24.2088</v>
+        <v>61.2</v>
       </c>
       <c r="Q24">
-        <v>0.02072316384180791</v>
+        <v>0.0308919287264651</v>
       </c>
       <c r="R24">
-        <v>0.2146170212765957</v>
+        <v>0.2450941129355227</v>
       </c>
       <c r="S24">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.4384255650818394</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>10.5</v>
+        <v>689.7</v>
       </c>
       <c r="V24">
-        <v>0.008988186954288649</v>
+        <v>0.3481399222654081</v>
       </c>
       <c r="W24">
-        <v>0.07530040053404539</v>
+        <v>0.1000240346098382</v>
       </c>
       <c r="X24">
-        <v>0.06782788854988156</v>
+        <v>0.09031144986259919</v>
       </c>
       <c r="Y24">
-        <v>0.007472511984163835</v>
+        <v>0.009712584747238975</v>
       </c>
       <c r="Z24">
-        <v>0.3729313335835138</v>
+        <v>0.3098418980158657</v>
       </c>
       <c r="AA24">
-        <v>0.01370128853481617</v>
+        <v>0.01252640608171665</v>
       </c>
       <c r="AB24">
-        <v>0.03247731733699657</v>
+        <v>0.0233475797173034</v>
       </c>
       <c r="AC24">
-        <v>-0.0187760288021804</v>
+        <v>-0.01082117363558675</v>
       </c>
       <c r="AD24">
-        <v>7531.1</v>
+        <v>23203.2</v>
       </c>
       <c r="AE24">
-        <v>73.29893337071712</v>
+        <v>21.24947832630847</v>
       </c>
       <c r="AF24">
-        <v>7604.398933370718</v>
+        <v>23224.44947832631</v>
       </c>
       <c r="AG24">
-        <v>7593.898933370718</v>
+        <v>22534.74947832631</v>
       </c>
       <c r="AH24">
-        <v>0.8668353575864274</v>
+        <v>0.9214022292311659</v>
       </c>
       <c r="AI24">
-        <v>0.8222839574868743</v>
+        <v>0.883830184111126</v>
       </c>
       <c r="AJ24">
-        <v>0.8666757806681598</v>
+        <v>0.9191910522312748</v>
       </c>
       <c r="AK24">
-        <v>0.8220819505734729</v>
+        <v>0.8806988585282859</v>
       </c>
       <c r="AL24">
-        <v>1.49</v>
+        <v>6.53</v>
       </c>
       <c r="AM24">
-        <v>0.24</v>
+        <v>-13.47</v>
       </c>
       <c r="AN24">
-        <v>25.84454358270418</v>
+        <v>28.42554025579458</v>
       </c>
       <c r="AO24">
-        <v>109.9328859060403</v>
+        <v>60.82695252679938</v>
       </c>
       <c r="AP24">
-        <v>26.06005124698256</v>
+        <v>27.60664168952603</v>
       </c>
       <c r="AQ24">
-        <v>682.5000000000001</v>
+        <v>-29.48775055679288</v>
       </c>
     </row>
     <row r="25">
@@ -3586,7 +3583,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fuyo General Lease Co., Ltd. (TSE:8424)</t>
+          <t>Orient Corporation (TSE:8585)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3595,121 +3592,115 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.0794</v>
+        <v>0.0258</v>
       </c>
       <c r="E25">
-        <v>0.139</v>
+        <v>0.0008100000000000001</v>
       </c>
       <c r="G25">
-        <v>0.102309375253221</v>
+        <v>0.1939718687206966</v>
       </c>
       <c r="H25">
-        <v>0.102309375253221</v>
+        <v>0.1939718687206966</v>
       </c>
       <c r="I25">
-        <v>0.05746407356694103</v>
+        <v>0.0800625139540076</v>
       </c>
       <c r="J25">
-        <v>0.04024829426017007</v>
+        <v>0.07018467132331835</v>
       </c>
       <c r="K25">
-        <v>247.2</v>
+        <v>161.9</v>
       </c>
       <c r="L25">
-        <v>0.04006158334008589</v>
+        <v>0.07229292252734985</v>
       </c>
       <c r="M25">
-        <v>73.30000000000001</v>
+        <v>200.5528</v>
       </c>
       <c r="N25">
-        <v>0.0361315127914428</v>
+        <v>0.1026948640483384</v>
       </c>
       <c r="O25">
-        <v>0.2965210355987056</v>
+        <v>1.23874490426189</v>
       </c>
       <c r="P25">
-        <v>54.3</v>
+        <v>48.6528</v>
       </c>
       <c r="Q25">
-        <v>0.02676590920293784</v>
+        <v>0.02491310358953351</v>
       </c>
       <c r="R25">
-        <v>0.2196601941747573</v>
+        <v>0.3005114268066708</v>
       </c>
       <c r="S25">
-        <v>19.00000000000001</v>
+        <v>151.9</v>
       </c>
       <c r="T25">
-        <v>0.2592087312414735</v>
+        <v>0.7574065283556249</v>
       </c>
       <c r="U25">
-        <v>628.1</v>
+        <v>2801.6</v>
       </c>
       <c r="V25">
-        <v>0.3096071375757874</v>
+        <v>1.434584464130268</v>
       </c>
       <c r="W25">
-        <v>0.1092403552963012</v>
+        <v>0.06623844202602079</v>
       </c>
       <c r="X25">
-        <v>0.08994838102265582</v>
+        <v>0.06272463816999226</v>
       </c>
       <c r="Y25">
-        <v>0.01929197427364539</v>
+        <v>0.003513803856028536</v>
       </c>
       <c r="Z25">
-        <v>0.3239432461108635</v>
+        <v>0.1705882801014617</v>
       </c>
       <c r="AA25">
-        <v>0.01303816309306473</v>
+        <v>0.01197268237053126</v>
       </c>
       <c r="AB25">
-        <v>0.03339472451655436</v>
+        <v>0.02310729556577667</v>
       </c>
       <c r="AC25">
-        <v>-0.02035656142348963</v>
+        <v>-0.01113461319524541</v>
       </c>
       <c r="AD25">
-        <v>20523.8</v>
+        <v>14139.3</v>
       </c>
       <c r="AE25">
-        <v>19.38967027595177</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>20543.18967027595</v>
+        <v>14139.3</v>
       </c>
       <c r="AG25">
-        <v>19915.08967027595</v>
+        <v>11337.7</v>
       </c>
       <c r="AH25">
-        <v>0.9101227221276242</v>
+        <v>0.8786430693130833</v>
       </c>
       <c r="AI25">
-        <v>0.8798019151507488</v>
+        <v>0.8539410666940456</v>
       </c>
       <c r="AJ25">
-        <v>0.9075501528914131</v>
+        <v>0.8530615623071945</v>
       </c>
       <c r="AK25">
-        <v>0.8764792565725631</v>
+        <v>0.824194357412348</v>
       </c>
       <c r="AL25">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>-15.05</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>29.38856750100235</v>
-      </c>
-      <c r="AO25">
-        <v>59.27731092436974</v>
+        <v>35.51695553880934</v>
       </c>
       <c r="AP25">
-        <v>28.5169392151268</v>
-      </c>
-      <c r="AQ25">
-        <v>-23.43521594684385</v>
+        <v>28.47952775684501</v>
       </c>
     </row>
     <row r="26">
@@ -3720,7 +3711,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Credit Saison Co., Ltd. (TSE:8253)</t>
+          <t>Aiful Corporation (TSE:8515)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3729,118 +3720,115 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.112</v>
-      </c>
-      <c r="E26">
-        <v>0.0306</v>
+        <v>0.0834</v>
       </c>
       <c r="G26">
-        <v>0.1456978870377895</v>
+        <v>0.03566764609859615</v>
       </c>
       <c r="H26">
-        <v>0.1456978870377895</v>
+        <v>0.03566764609859615</v>
       </c>
       <c r="I26">
-        <v>0.1043401378321175</v>
+        <v>0.04970617042115573</v>
       </c>
       <c r="J26">
-        <v>0.06853198670876644</v>
+        <v>0.04075434825999973</v>
       </c>
       <c r="K26">
-        <v>284.3</v>
+        <v>56.5</v>
       </c>
       <c r="L26">
-        <v>0.07220134091832589</v>
+        <v>0.04611492001305909</v>
       </c>
       <c r="M26">
-        <v>119.7952</v>
+        <v>-0</v>
       </c>
       <c r="N26">
-        <v>0.04362693470264758</v>
+        <v>-0</v>
       </c>
       <c r="O26">
-        <v>0.421368976433345</v>
+        <v>-0</v>
       </c>
       <c r="P26">
-        <v>65.39519999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q26">
-        <v>0.0238155795913908</v>
+        <v>-0</v>
       </c>
       <c r="R26">
-        <v>0.2300218079493492</v>
+        <v>-0</v>
       </c>
       <c r="S26">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="T26">
-        <v>0.4541083449086442</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>785</v>
+        <v>398.5</v>
       </c>
       <c r="V26">
-        <v>0.2858807676900105</v>
+        <v>0.3428546846769337</v>
       </c>
       <c r="W26">
-        <v>0.06544508643907829</v>
+        <v>0.0472368531059276</v>
       </c>
       <c r="X26">
-        <v>0.07711728819660417</v>
+        <v>0.04062925452826317</v>
       </c>
       <c r="Y26">
-        <v>-0.01167220175752588</v>
+        <v>0.006607598577664429</v>
       </c>
       <c r="Z26">
-        <v>0.1787993504671593</v>
+        <v>0.2437481348851089</v>
       </c>
       <c r="AA26">
-        <v>0.01225347470975143</v>
+        <v>0.009933796376833117</v>
       </c>
       <c r="AB26">
-        <v>0.03327128145915154</v>
+        <v>0.02258067996217527</v>
       </c>
       <c r="AC26">
-        <v>-0.02101780674940011</v>
+        <v>-0.01264688358534215</v>
       </c>
       <c r="AD26">
-        <v>22026.8</v>
+        <v>4242</v>
       </c>
       <c r="AE26">
-        <v>18.25136636127038</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>22045.05136636127</v>
+        <v>4242</v>
       </c>
       <c r="AG26">
-        <v>21260.05136636127</v>
+        <v>3843.5</v>
       </c>
       <c r="AH26">
-        <v>0.889237812642967</v>
+        <v>0.7849305182909905</v>
       </c>
       <c r="AI26">
-        <v>0.8290339955286542</v>
+        <v>0.763073159324351</v>
       </c>
       <c r="AJ26">
-        <v>0.8856158642457412</v>
+        <v>0.7678093411642495</v>
       </c>
       <c r="AK26">
-        <v>0.8238333830257105</v>
+        <v>0.7447777390225943</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AM26">
-        <v>-3.62</v>
+        <v>-1.632</v>
       </c>
       <c r="AN26">
-        <v>32.78773444477523</v>
+        <v>46.1588683351469</v>
+      </c>
+      <c r="AO26">
+        <v>1602.631578947368</v>
       </c>
       <c r="AP26">
-        <v>31.64639977130287</v>
+        <v>41.82263329706202</v>
       </c>
       <c r="AQ26">
-        <v>-113.9226519337016</v>
+        <v>-37.31617647058824</v>
       </c>
     </row>
     <row r="27">
@@ -3851,7 +3839,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wedge Holdings CO., LTD. (JASDAQ:2388)</t>
+          <t>Mizuho Leasing Company, Limited (TSE:8425)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3860,115 +3848,121 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.0922</v>
+        <v>0.0788</v>
+      </c>
+      <c r="E27">
+        <v>0.14</v>
       </c>
       <c r="G27">
-        <v>0.08839907192575405</v>
+        <v>0.07906422169229506</v>
       </c>
       <c r="H27">
-        <v>0.08839907192575405</v>
+        <v>0.07906422169229506</v>
       </c>
       <c r="I27">
-        <v>0.05266821345707656</v>
+        <v>0.04856319048539983</v>
       </c>
       <c r="J27">
-        <v>0.02633410672853828</v>
+        <v>0.0337976794592368</v>
       </c>
       <c r="K27">
-        <v>-4.14</v>
+        <v>205.3</v>
       </c>
       <c r="L27">
-        <v>-0.04802784222737819</v>
+        <v>0.04220458843845079</v>
       </c>
       <c r="M27">
-        <v>-0</v>
+        <v>36.6872</v>
       </c>
       <c r="N27">
-        <v>-0</v>
+        <v>0.02521110500274876</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.1787004383828543</v>
       </c>
       <c r="P27">
-        <v>-0</v>
+        <v>36.6872</v>
       </c>
       <c r="Q27">
-        <v>-0</v>
+        <v>0.02521110500274876</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.1787004383828543</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
       <c r="U27">
-        <v>103.7</v>
+        <v>159.2</v>
       </c>
       <c r="V27">
-        <v>2.743386243386244</v>
+        <v>0.1094007696536558</v>
       </c>
       <c r="W27">
-        <v>-0.05939741750358679</v>
+        <v>0.1234367484367484</v>
       </c>
       <c r="X27">
-        <v>0.0611035872153667</v>
+        <v>0.1072516786445379</v>
       </c>
       <c r="Y27">
-        <v>-0.1205010047189535</v>
+        <v>0.01618506979221054</v>
       </c>
       <c r="Z27">
-        <v>0.4438722966014418</v>
+        <v>0.2611752628539781</v>
       </c>
       <c r="AA27">
-        <v>0.01168898043254377</v>
+        <v>0.008827117816620668</v>
       </c>
       <c r="AB27">
-        <v>0.03300386803016727</v>
+        <v>0.02342614405388813</v>
       </c>
       <c r="AC27">
-        <v>-0.0213148875976235</v>
+        <v>-0.01459902623726746</v>
       </c>
       <c r="AD27">
-        <v>204.5</v>
+        <v>21065</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>0.1710810141053142</v>
       </c>
       <c r="AF27">
-        <v>204.5</v>
+        <v>21065.1710810141</v>
       </c>
       <c r="AG27">
-        <v>100.8</v>
+        <v>20905.9710810141</v>
       </c>
       <c r="AH27">
-        <v>0.8439950474618242</v>
+        <v>0.9353829475204868</v>
       </c>
       <c r="AI27">
-        <v>0.5481104261592066</v>
+        <v>0.9161968326590721</v>
       </c>
       <c r="AJ27">
-        <v>0.7272727272727273</v>
+        <v>0.9349229074484589</v>
       </c>
       <c r="AK27">
-        <v>0.3741648106904232</v>
+        <v>0.9156125205668895</v>
       </c>
       <c r="AL27">
-        <v>9.130000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="AM27">
-        <v>5.9</v>
+        <v>7.069999999999999</v>
       </c>
       <c r="AN27">
-        <v>26.83727034120735</v>
+        <v>54.89036259169023</v>
       </c>
       <c r="AO27">
-        <v>0.4972617743702081</v>
+        <v>21.27927927927928</v>
       </c>
       <c r="AP27">
-        <v>13.22834645669291</v>
+        <v>54.47597118292212</v>
       </c>
       <c r="AQ27">
-        <v>0.7694915254237288</v>
+        <v>33.40876944837341</v>
       </c>
     </row>
     <row r="28">
@@ -3979,7 +3973,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Japan Securities Finance Co., Ltd. (TSE:8511)</t>
+          <t>Ricoh Leasing Company, Ltd. (TSE:8566)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3988,118 +3982,121 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.0553</v>
+        <v>0.0499</v>
       </c>
       <c r="E28">
-        <v>0.0471</v>
+        <v>0.0217</v>
       </c>
       <c r="G28">
-        <v>0.1961897040940414</v>
+        <v>0.08821339950372208</v>
       </c>
       <c r="H28">
-        <v>0.1961897040940414</v>
+        <v>0.08821339950372208</v>
       </c>
       <c r="I28">
-        <v>0.1544385893798136</v>
+        <v>0.04857032717497069</v>
       </c>
       <c r="J28">
-        <v>0.1175431124243824</v>
+        <v>0.03365142642838735</v>
       </c>
       <c r="K28">
-        <v>36</v>
+        <v>110.3</v>
       </c>
       <c r="L28">
-        <v>0.1459262261856506</v>
+        <v>0.034212158808933</v>
       </c>
       <c r="M28">
-        <v>20.4248</v>
+        <v>26.3864</v>
       </c>
       <c r="N28">
-        <v>0.04609523809523808</v>
+        <v>0.02877783836841532</v>
       </c>
       <c r="O28">
-        <v>0.5673555555555555</v>
+        <v>0.2392239347234814</v>
       </c>
       <c r="P28">
-        <v>9.424799999999999</v>
+        <v>26.2724</v>
       </c>
       <c r="Q28">
-        <v>0.02127014218009479</v>
+        <v>0.02865350638019414</v>
       </c>
       <c r="R28">
-        <v>0.2618</v>
+        <v>0.2381903898458749</v>
       </c>
       <c r="S28">
-        <v>11</v>
+        <v>0.1140000000000008</v>
       </c>
       <c r="T28">
-        <v>0.5385609651012494</v>
+        <v>0.004320407482642602</v>
       </c>
       <c r="U28">
-        <v>9842.5</v>
+        <v>201.1</v>
       </c>
       <c r="V28">
-        <v>22.21281877679982</v>
+        <v>0.2193259897480641</v>
       </c>
       <c r="W28">
-        <v>0.02846975088967971</v>
+        <v>0.0671128688773958</v>
       </c>
       <c r="X28">
-        <v>0.2073883104205174</v>
+        <v>0.07258293573261919</v>
       </c>
       <c r="Y28">
-        <v>-0.1789185595308377</v>
+        <v>-0.005470066855223388</v>
       </c>
       <c r="Z28">
-        <v>0.04994533749038345</v>
+        <v>0.3488178478659136</v>
       </c>
       <c r="AA28">
-        <v>0.005870730419705863</v>
+        <v>0.0117382181443682</v>
       </c>
       <c r="AB28">
-        <v>0.03088903460763918</v>
+        <v>0.02639716267713406</v>
       </c>
       <c r="AC28">
-        <v>-0.02501830418793331</v>
+        <v>-0.01465894453276585</v>
       </c>
       <c r="AD28">
-        <v>12995.3</v>
+        <v>8028.8</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>78.54632593947241</v>
       </c>
       <c r="AF28">
-        <v>12995.3</v>
+        <v>8107.346325939473</v>
       </c>
       <c r="AG28">
-        <v>3152.799999999999</v>
+        <v>7906.246325939473</v>
       </c>
       <c r="AH28">
-        <v>0.9670273246815096</v>
+        <v>0.8983959472200526</v>
       </c>
       <c r="AI28">
-        <v>0.9094618237805304</v>
+        <v>0.8209849310934823</v>
       </c>
       <c r="AJ28">
-        <v>0.876776328596457</v>
+        <v>0.8960801548417741</v>
       </c>
       <c r="AK28">
-        <v>0.709052063420668</v>
+        <v>0.8172636412480354</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AM28">
-        <v>-5.06</v>
+        <v>-1.51</v>
       </c>
       <c r="AN28">
-        <v>254.8098039215686</v>
+        <v>25.39152435167615</v>
+      </c>
+      <c r="AO28">
+        <v>78.91625615763547</v>
       </c>
       <c r="AP28">
-        <v>61.81960784313724</v>
+        <v>25.00394157476114</v>
       </c>
       <c r="AQ28">
-        <v>-7.529644268774704</v>
+        <v>-106.0927152317881</v>
       </c>
     </row>
     <row r="29">
@@ -4110,7 +4107,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aiful Corporation (TSE:8515)</t>
+          <t>Mitsubishi UFJ Lease &amp; Finance Company Limited (TSE:8593)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4119,118 +4116,121 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.0639</v>
+        <v>0.0256</v>
       </c>
       <c r="E29">
-        <v>-0.128</v>
+        <v>0.0237</v>
       </c>
       <c r="G29">
-        <v>0.04605144810217666</v>
+        <v>0.256887307292724</v>
       </c>
       <c r="H29">
-        <v>0.04605144810217666</v>
+        <v>0.256887307292724</v>
       </c>
       <c r="I29">
-        <v>0.02401511063140853</v>
+        <v>0.08047002552467332</v>
       </c>
       <c r="J29">
-        <v>0.02401511063140853</v>
+        <v>0.05816046266037272</v>
       </c>
       <c r="K29">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="L29">
-        <v>0.07825148407987048</v>
+        <v>0.06424570998674484</v>
       </c>
       <c r="M29">
-        <v>-0</v>
+        <v>212.9968</v>
       </c>
       <c r="N29">
-        <v>-0</v>
+        <v>0.04983197248672297</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>0.3959048327137547</v>
       </c>
       <c r="P29">
-        <v>-0</v>
+        <v>212.9968</v>
       </c>
       <c r="Q29">
-        <v>-0</v>
+        <v>0.04983197248672297</v>
       </c>
       <c r="R29">
-        <v>-0</v>
+        <v>0.3959048327137547</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
       <c r="U29">
-        <v>219</v>
+        <v>3326.7</v>
       </c>
       <c r="V29">
-        <v>0.1940285283954993</v>
+        <v>0.7783028800037433</v>
       </c>
       <c r="W29">
-        <v>0.08281770585435506</v>
+        <v>0.07683957952468007</v>
       </c>
       <c r="X29">
-        <v>0.04995774788585245</v>
+        <v>0.08344122844702387</v>
       </c>
       <c r="Y29">
-        <v>0.03285995796850261</v>
+        <v>-0.0066016489223438</v>
       </c>
       <c r="Z29">
-        <v>0.2610042960771886</v>
+        <v>0.1798106071237339</v>
       </c>
       <c r="AA29">
-        <v>0.006268047045566589</v>
+        <v>0.01045786810155887</v>
       </c>
       <c r="AB29">
-        <v>0.03263758158754238</v>
+        <v>0.02548194904847642</v>
       </c>
       <c r="AC29">
-        <v>-0.02636953454197579</v>
+        <v>-0.01502408094691755</v>
       </c>
       <c r="AD29">
-        <v>4049.4</v>
+        <v>45267.1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>68.67979626916569</v>
       </c>
       <c r="AF29">
-        <v>4049.4</v>
+        <v>45335.77979626916</v>
       </c>
       <c r="AG29">
-        <v>3830.4</v>
+        <v>42009.07979626916</v>
       </c>
       <c r="AH29">
-        <v>0.7820242946254418</v>
+        <v>0.9138421059278069</v>
       </c>
       <c r="AI29">
-        <v>0.7678334407827373</v>
+        <v>0.8575427273641189</v>
       </c>
       <c r="AJ29">
-        <v>0.7723982174184831</v>
+        <v>0.9076493545023143</v>
       </c>
       <c r="AK29">
-        <v>0.7577747883200127</v>
+        <v>0.8479765389169024</v>
       </c>
       <c r="AL29">
-        <v>0.046</v>
+        <v>45.3</v>
       </c>
       <c r="AM29">
-        <v>-2.404</v>
+        <v>10.4</v>
       </c>
       <c r="AN29">
-        <v>77.87307692307692</v>
+        <v>22.00957845091652</v>
       </c>
       <c r="AO29">
-        <v>580.4347826086956</v>
+        <v>14.52538631346578</v>
       </c>
       <c r="AP29">
-        <v>73.66153846153847</v>
+        <v>20.42547760794922</v>
       </c>
       <c r="AQ29">
-        <v>-11.10648918469218</v>
+        <v>63.26923076923078</v>
       </c>
     </row>
     <row r="30">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mizuho Leasing Company, Limited (TSE:8425)</t>
+          <t>Showa Holdings Co., Ltd. (TSE:5103)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4250,121 +4250,115 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.0581</v>
-      </c>
-      <c r="E30">
-        <v>0.114</v>
+        <v>0.0407</v>
       </c>
       <c r="G30">
-        <v>0.07665013981248678</v>
+        <v>0.02060363636363636</v>
       </c>
       <c r="H30">
-        <v>0.07665013981248678</v>
+        <v>0.0184</v>
       </c>
       <c r="I30">
-        <v>0.05318341736440498</v>
+        <v>0.01185716054058391</v>
       </c>
       <c r="J30">
-        <v>0.03649396531418127</v>
+        <v>0.01185716054058391</v>
       </c>
       <c r="K30">
-        <v>155.6</v>
+        <v>-13.4</v>
       </c>
       <c r="L30">
-        <v>0.03656272763587659</v>
+        <v>-0.09745454545454546</v>
       </c>
       <c r="M30">
-        <v>3.15</v>
+        <v>-0</v>
       </c>
       <c r="N30">
-        <v>0.002069917203311867</v>
+        <v>-0</v>
       </c>
       <c r="O30">
-        <v>0.02024421593830334</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>3.15</v>
+        <v>-0</v>
       </c>
       <c r="Q30">
-        <v>0.002069917203311867</v>
+        <v>-0</v>
       </c>
       <c r="R30">
-        <v>0.02024421593830334</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
-        <v>129.6</v>
+        <v>126.4</v>
       </c>
       <c r="V30">
-        <v>0.08516230779340254</v>
+        <v>3.249357326478149</v>
       </c>
       <c r="W30">
-        <v>0.1141264485844213</v>
+        <v>-0.2472324723247232</v>
       </c>
       <c r="X30">
-        <v>0.09672225534532139</v>
+        <v>0.05025179681542541</v>
       </c>
       <c r="Y30">
-        <v>0.0174041932390999</v>
+        <v>-0.2974842691401486</v>
       </c>
       <c r="Z30">
-        <v>0.2525855092765665</v>
+        <v>0.8951927698027565</v>
       </c>
       <c r="AA30">
-        <v>0.009217846814403829</v>
+        <v>0.01061444438632126</v>
       </c>
       <c r="AB30">
-        <v>0.03586375402053613</v>
+        <v>0.02672693619986379</v>
       </c>
       <c r="AC30">
-        <v>-0.0266459072061323</v>
+        <v>-0.01611249181354254</v>
       </c>
       <c r="AD30">
-        <v>17095.5</v>
+        <v>194.3</v>
       </c>
       <c r="AE30">
-        <v>0.1516536115085928</v>
+        <v>8.498202128348565</v>
       </c>
       <c r="AF30">
-        <v>17095.65165361151</v>
+        <v>202.7982021283486</v>
       </c>
       <c r="AG30">
-        <v>16966.05165361151</v>
+        <v>76.39820212834857</v>
       </c>
       <c r="AH30">
-        <v>0.9182594896275832</v>
+        <v>0.8390554846603989</v>
       </c>
       <c r="AI30">
-        <v>0.907178892561631</v>
+        <v>0.6203711149464347</v>
       </c>
       <c r="AJ30">
-        <v>0.917686487942869</v>
+        <v>0.6626139932633383</v>
       </c>
       <c r="AK30">
-        <v>0.9065361218553288</v>
+        <v>0.3810418313848141</v>
       </c>
       <c r="AL30">
-        <v>18.4</v>
+        <v>7.04</v>
       </c>
       <c r="AM30">
-        <v>-17.5</v>
+        <v>5.12</v>
       </c>
       <c r="AN30">
-        <v>45.81241977366459</v>
+        <v>25.59947299077734</v>
       </c>
       <c r="AO30">
-        <v>12.29891304347826</v>
+        <v>0.2017045454545454</v>
       </c>
       <c r="AP30">
-        <v>45.46552486074854</v>
+        <v>10.06563927909731</v>
       </c>
       <c r="AQ30">
-        <v>-12.93142857142857</v>
+        <v>0.27734375</v>
       </c>
     </row>
     <row r="31">
@@ -4375,7 +4369,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JACCS Co., Ltd. (TSE:8584)</t>
+          <t>Hitachi Capital Corporation (TSE:8586)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4384,103 +4378,103 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.0746</v>
+        <v>-0.00291</v>
       </c>
       <c r="E31">
-        <v>0.064</v>
+        <v>0.0016</v>
       </c>
       <c r="G31">
-        <v>0.1560701854088229</v>
+        <v>0.3977576324983445</v>
       </c>
       <c r="H31">
-        <v>0.1560701854088229</v>
+        <v>0.3977576324983445</v>
       </c>
       <c r="I31">
-        <v>0.1044966967393621</v>
+        <v>0.08151987760601009</v>
       </c>
       <c r="J31">
-        <v>0.07045386352398915</v>
+        <v>0.06008670786782896</v>
       </c>
       <c r="K31">
-        <v>92.7</v>
+        <v>266.6</v>
       </c>
       <c r="L31">
-        <v>0.065852099168857</v>
+        <v>0.06087730915899801</v>
       </c>
       <c r="M31">
-        <v>27.0474</v>
+        <v>108.5072</v>
       </c>
       <c r="N31">
-        <v>0.03052409434601061</v>
+        <v>0.03849820826680859</v>
       </c>
       <c r="O31">
-        <v>0.2917734627831715</v>
+        <v>0.4070037509377344</v>
       </c>
       <c r="P31">
-        <v>27.0384</v>
+        <v>108.5072</v>
       </c>
       <c r="Q31">
-        <v>0.03051393747883986</v>
+        <v>0.03849820826680859</v>
       </c>
       <c r="R31">
-        <v>0.2916763754045307</v>
+        <v>0.4070037509377344</v>
       </c>
       <c r="S31">
-        <v>0.009000000000000341</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.000332749173672898</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>585.1</v>
+        <v>2346</v>
       </c>
       <c r="V31">
-        <v>0.6603092201783095</v>
+        <v>0.8323576370409792</v>
       </c>
       <c r="W31">
-        <v>0.0701847365233192</v>
+        <v>0.0758269575357661</v>
       </c>
       <c r="X31">
-        <v>0.1572355163264114</v>
+        <v>0.08025110411130267</v>
       </c>
       <c r="Y31">
-        <v>-0.08705077980309224</v>
+        <v>-0.004424146575536567</v>
       </c>
       <c r="Z31">
-        <v>0.09166169625904115</v>
+        <v>0.1462711592673249</v>
       </c>
       <c r="AA31">
-        <v>0.006457920638611832</v>
+        <v>0.008788952416384433</v>
       </c>
       <c r="AB31">
-        <v>0.03365884484945144</v>
+        <v>0.02544971837350808</v>
       </c>
       <c r="AC31">
-        <v>-0.02720092421083961</v>
+        <v>-0.01666076595712365</v>
       </c>
       <c r="AD31">
-        <v>18721.5</v>
+        <v>28433.6</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>18721.5</v>
+        <v>28433.6</v>
       </c>
       <c r="AG31">
-        <v>18136.4</v>
+        <v>26087.6</v>
       </c>
       <c r="AH31">
-        <v>0.9548083396234114</v>
+        <v>0.9098140604951347</v>
       </c>
       <c r="AI31">
-        <v>0.9260642455060792</v>
+        <v>0.8817303666950926</v>
       </c>
       <c r="AJ31">
-        <v>0.9534183204100408</v>
+        <v>0.9024946291613188</v>
       </c>
       <c r="AK31">
-        <v>0.923860608931746</v>
+        <v>0.8724512148219988</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -4489,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>79.42935935511244</v>
+        <v>15.73612264098733</v>
       </c>
       <c r="AP31">
-        <v>76.94696648281715</v>
+        <v>14.43776634014057</v>
       </c>
     </row>
     <row r="32">
@@ -4503,7 +4497,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hitachi Capital Corporation (TSE:8586)</t>
+          <t>Credit Saison Co., Ltd. (TSE:8253)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4512,115 +4506,118 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.275</v>
+        <v>0.05769999999999999</v>
       </c>
       <c r="E32">
-        <v>-0.0859</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="G32">
-        <v>0.3475305845038514</v>
+        <v>0.1475224218587051</v>
       </c>
       <c r="H32">
-        <v>0.3475305845038514</v>
+        <v>0.1475224218587051</v>
       </c>
       <c r="I32">
-        <v>0.05492094531753035</v>
+        <v>0.06406245344298442</v>
       </c>
       <c r="J32">
-        <v>0.02907965590717045</v>
+        <v>0.04974085057117942</v>
       </c>
       <c r="K32">
-        <v>141.8</v>
+        <v>233.4</v>
       </c>
       <c r="L32">
-        <v>0.0338158490926001</v>
+        <v>0.06954500759810495</v>
       </c>
       <c r="M32">
-        <v>56.2289</v>
+        <v>105.8401</v>
       </c>
       <c r="N32">
-        <v>0.01819234502394202</v>
+        <v>0.05894085871804867</v>
       </c>
       <c r="O32">
-        <v>0.3965366713681241</v>
+        <v>0.4534708654670094</v>
       </c>
       <c r="P32">
-        <v>56.2289</v>
+        <v>66.7401</v>
       </c>
       <c r="Q32">
-        <v>0.01819234502394202</v>
+        <v>0.03716662025950882</v>
       </c>
       <c r="R32">
-        <v>0.3965366713681241</v>
+        <v>0.2859473007712082</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>39.10000000000001</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>0.3694251989557834</v>
       </c>
       <c r="U32">
-        <v>2094.8</v>
+        <v>917.8</v>
       </c>
       <c r="V32">
-        <v>0.6777533324705578</v>
+        <v>0.511109873586902</v>
       </c>
       <c r="W32">
-        <v>0.04104434410096099</v>
+        <v>0.05140516254074531</v>
       </c>
       <c r="X32">
-        <v>0.08444768815752003</v>
+        <v>0.09591525732276561</v>
       </c>
       <c r="Y32">
-        <v>-0.04340334405655905</v>
+        <v>-0.0445100947820203</v>
       </c>
       <c r="Z32">
-        <v>0.1486938360123259</v>
+        <v>0.1301712033883843</v>
       </c>
       <c r="AA32">
-        <v>0.004323965586755667</v>
+        <v>0.006474826376412226</v>
       </c>
       <c r="AB32">
-        <v>0.03157528970609939</v>
+        <v>0.02337708032081073</v>
       </c>
       <c r="AC32">
-        <v>-0.02725132411934372</v>
+        <v>-0.01690225394439851</v>
       </c>
       <c r="AD32">
-        <v>28518.5</v>
+        <v>22686.2</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>28518.5</v>
+        <v>22686.2</v>
       </c>
       <c r="AG32">
-        <v>26423.7</v>
+        <v>21768.4</v>
       </c>
       <c r="AH32">
-        <v>0.9022186508401009</v>
+        <v>0.926651934694611</v>
       </c>
       <c r="AI32">
-        <v>0.8868740709412182</v>
+        <v>0.8265276381177226</v>
       </c>
       <c r="AJ32">
-        <v>0.8952785918785682</v>
+        <v>0.9237950950810767</v>
       </c>
       <c r="AK32">
-        <v>0.8789909984232271</v>
+        <v>0.8205263514990689</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>-13.5</v>
       </c>
       <c r="AN32">
-        <v>19.29402611460659</v>
+        <v>47.09611791571518</v>
       </c>
       <c r="AP32">
-        <v>17.87680129896489</v>
+        <v>45.19078264479968</v>
+      </c>
+      <c r="AQ32">
+        <v>-15.92592592592593</v>
       </c>
     </row>
     <row r="33">
@@ -4631,7 +4628,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AEON Financial Service Co., Ltd. (TSE:8570)</t>
+          <t>Japan Securities Finance Co., Ltd. (TSE:8511)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4640,115 +4637,118 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.0863</v>
+        <v>0.06709999999999999</v>
       </c>
       <c r="E33">
-        <v>0.0279</v>
+        <v>0.0162</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.1807313642756681</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.1807313642756681</v>
       </c>
       <c r="I33">
-        <v>0.006864452121923695</v>
+        <v>0.1508438818565401</v>
       </c>
       <c r="J33">
-        <v>0.004978999782698051</v>
+        <v>0.1077898786161724</v>
       </c>
       <c r="K33">
-        <v>309.9</v>
+        <v>34.8</v>
       </c>
       <c r="L33">
-        <v>0.08640495176490269</v>
+        <v>0.1223628691983122</v>
       </c>
       <c r="M33">
-        <v>135.7382</v>
+        <v>23.0562</v>
       </c>
       <c r="N33">
-        <v>0.0396454816285998</v>
+        <v>0.04820447417938532</v>
       </c>
       <c r="O33">
-        <v>0.4380064536947403</v>
+        <v>0.6625344827586207</v>
       </c>
       <c r="P33">
-        <v>135.7382</v>
+        <v>19.1862</v>
       </c>
       <c r="Q33">
-        <v>0.0396454816285998</v>
+        <v>0.04011331800125444</v>
       </c>
       <c r="R33">
-        <v>0.4380064536947403</v>
+        <v>0.5513275862068966</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>3.870000000000001</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>0.1678507299555001</v>
       </c>
       <c r="U33">
-        <v>6587.9</v>
+        <v>7537.1</v>
       </c>
       <c r="V33">
-        <v>1.924148606811145</v>
+        <v>15.75810160986828</v>
       </c>
       <c r="W33">
-        <v>0.09688613768523728</v>
+        <v>0.02689959032233129</v>
       </c>
       <c r="X33">
-        <v>0.045161862448394</v>
+        <v>0.1807779309736361</v>
       </c>
       <c r="Y33">
-        <v>0.05172427523684328</v>
+        <v>-0.1538783406513048</v>
       </c>
       <c r="Z33">
-        <v>0.8611078219874014</v>
+        <v>0.06396041830653322</v>
       </c>
       <c r="AA33">
-        <v>0.004287455658554864</v>
+        <v>0.006894285725500825</v>
       </c>
       <c r="AB33">
-        <v>0.03237196664116022</v>
+        <v>0.02485110509043692</v>
       </c>
       <c r="AC33">
-        <v>-0.02808451098260536</v>
+        <v>-0.0179568193649361</v>
       </c>
       <c r="AD33">
-        <v>9530.299999999999</v>
+        <v>12638.5</v>
       </c>
       <c r="AE33">
-        <v>68.39978009754236</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>9598.699780097542</v>
+        <v>12638.5</v>
       </c>
       <c r="AG33">
-        <v>3010.799780097543</v>
+        <v>5101.4</v>
       </c>
       <c r="AH33">
-        <v>0.7370858085762736</v>
+        <v>0.9635353134910954</v>
       </c>
       <c r="AI33">
-        <v>0.69982282854135</v>
+        <v>0.9116516269575066</v>
       </c>
       <c r="AJ33">
-        <v>0.4679078548770133</v>
+        <v>0.9142785454415111</v>
       </c>
       <c r="AK33">
-        <v>0.4223905545710246</v>
+        <v>0.8063924630900066</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
       <c r="AN33">
-        <v>248.8328981723238</v>
+        <v>225.6875</v>
       </c>
       <c r="AP33">
-        <v>78.61096031586274</v>
+        <v>91.09642857142856</v>
+      </c>
+      <c r="AQ33">
+        <v>-10.69825436408978</v>
       </c>
     </row>
     <row r="34">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APLUS FINANCIAL Co., Ltd. (TSE:8589)</t>
+          <t>JACCS Co., Ltd. (TSE:8584)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4768,103 +4768,103 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.03759999999999999</v>
+        <v>0.0774</v>
       </c>
       <c r="E34">
-        <v>-0.172</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="G34">
-        <v>0.08303198887343533</v>
+        <v>0.1582879989513011</v>
       </c>
       <c r="H34">
-        <v>0.08303198887343533</v>
+        <v>0.1582879989513011</v>
       </c>
       <c r="I34">
-        <v>0.03604239972972004</v>
+        <v>0.0811430818640624</v>
       </c>
       <c r="J34">
-        <v>0.03343933752701803</v>
+        <v>0.05014460115194867</v>
       </c>
       <c r="K34">
-        <v>21.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="L34">
-        <v>0.0301808066759388</v>
+        <v>0.06089008324047978</v>
       </c>
       <c r="M34">
-        <v>157.9</v>
+        <v>31.1936</v>
       </c>
       <c r="N34">
-        <v>0.1281343828613163</v>
+        <v>0.05092001305909239</v>
       </c>
       <c r="O34">
-        <v>7.276497695852535</v>
+        <v>0.3357761033369214</v>
       </c>
       <c r="P34">
-        <v>-0</v>
+        <v>31.1746</v>
       </c>
       <c r="Q34">
-        <v>-0</v>
+        <v>0.05088899771465883</v>
       </c>
       <c r="R34">
-        <v>-0</v>
+        <v>0.3355715823466093</v>
       </c>
       <c r="S34">
-        <v>157.9</v>
+        <v>0.01899999999999835</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0.0006090993024209565</v>
       </c>
       <c r="U34">
-        <v>1452.3</v>
+        <v>1512.9</v>
       </c>
       <c r="V34">
-        <v>1.178527955854906</v>
+        <v>2.469637610186092</v>
       </c>
       <c r="W34">
-        <v>0.03068872860981474</v>
+        <v>0.06448701929751494</v>
       </c>
       <c r="X34">
-        <v>0.06350534409264415</v>
+        <v>0.2323743131191215</v>
       </c>
       <c r="Y34">
-        <v>-0.03281661548282941</v>
+        <v>-0.1678872938216066</v>
       </c>
       <c r="Z34">
-        <v>0.1226245214171891</v>
+        <v>0.07799823114714709</v>
       </c>
       <c r="AA34">
-        <v>0.004100482760758439</v>
+        <v>0.00391119019143119</v>
       </c>
       <c r="AB34">
-        <v>0.03305709657226153</v>
+        <v>0.02363232541528641</v>
       </c>
       <c r="AC34">
-        <v>-0.02895661381150309</v>
+        <v>-0.01972113522385521</v>
       </c>
       <c r="AD34">
-        <v>7146.4</v>
+        <v>21323.5</v>
       </c>
       <c r="AE34">
-        <v>4.327572971656474</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>7150.727572971656</v>
+        <v>21323.5</v>
       </c>
       <c r="AG34">
-        <v>5698.427572971656</v>
+        <v>19810.6</v>
       </c>
       <c r="AH34">
-        <v>0.8530006027925817</v>
+        <v>0.9720734314668515</v>
       </c>
       <c r="AI34">
-        <v>0.9215653683548612</v>
+        <v>0.93167796847146</v>
       </c>
       <c r="AJ34">
-        <v>0.82219759945468</v>
+        <v>0.9700047005366447</v>
       </c>
       <c r="AK34">
-        <v>0.9035044649863091</v>
+        <v>0.9268420486284931</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -4873,10 +4873,10 @@
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>105.5910165484633</v>
+        <v>99.27141527001862</v>
       </c>
       <c r="AP34">
-        <v>84.1966248961533</v>
+        <v>92.22811918063313</v>
       </c>
     </row>
     <row r="35">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bank of Japan (TSE:8301)</t>
+          <t>AEON Financial Service Co., Ltd. (TSE:8570)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4902,100 +4902,97 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>3.577665321880104e-05</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1.953801042321657e-05</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>5297</v>
+        <v>343.9</v>
       </c>
       <c r="L35">
-        <v>0.2656309550077227</v>
+        <v>0.07854646780713975</v>
       </c>
       <c r="M35">
-        <v>-0</v>
+        <v>147.8</v>
       </c>
       <c r="N35">
-        <v>-0</v>
+        <v>0.05718928958365578</v>
       </c>
       <c r="O35">
-        <v>-0</v>
+        <v>0.4297760977028207</v>
       </c>
       <c r="P35">
-        <v>-0</v>
+        <v>147.8</v>
       </c>
       <c r="Q35">
-        <v>-0</v>
+        <v>0.05718928958365578</v>
       </c>
       <c r="R35">
-        <v>-0</v>
+        <v>0.4297760977028207</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
       <c r="U35">
-        <v>2256.7</v>
+        <v>6876.3</v>
       </c>
       <c r="V35">
-        <v>7.725778842862033</v>
+        <v>2.660694938863953</v>
       </c>
       <c r="W35">
-        <v>0.1424464649235328</v>
+        <v>0.1000873108265425</v>
       </c>
       <c r="X35">
-        <v>20.38973699060688</v>
+        <v>0.04370146256499842</v>
       </c>
       <c r="Y35">
-        <v>-20.24729052568335</v>
+        <v>0.05638584826154407</v>
       </c>
       <c r="Z35">
-        <v>0.01961048712041338</v>
+        <v>0.9048504763676195</v>
       </c>
       <c r="AA35">
-        <v>3.83149901762991e-07</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>0.02976263137563451</v>
+        <v>0.02269786288234832</v>
       </c>
       <c r="AC35">
-        <v>-0.02976224822573275</v>
+        <v>-0.02269786288234832</v>
       </c>
       <c r="AD35">
-        <v>972457.5</v>
+        <v>10722.4</v>
       </c>
       <c r="AE35">
-        <v>6.582853014166222</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>972464.0828530141</v>
+        <v>10722.4</v>
       </c>
       <c r="AG35">
-        <v>970207.3828530142</v>
+        <v>3846.099999999999</v>
       </c>
       <c r="AH35">
-        <v>0.9996997192049263</v>
+        <v>0.8057835091832747</v>
       </c>
       <c r="AI35">
-        <v>0.9658529326756093</v>
+        <v>0.7238018090995004</v>
       </c>
       <c r="AJ35">
-        <v>0.9996990209627508</v>
+        <v>0.5981027913848067</v>
       </c>
       <c r="AK35">
-        <v>0.9657762249379053</v>
+        <v>0.4845358227194275</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>479043.1034482759</v>
-      </c>
-      <c r="AP35">
-        <v>477934.6713561647</v>
       </c>
     </row>
     <row r="36">
@@ -5006,7 +5003,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Showa Holdings Co., Ltd. (TSE:5103)</t>
+          <t>NEC Capital Solutions Limited (TSE:8793)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5015,115 +5012,121 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.121</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="E36">
+        <v>-0.09140000000000001</v>
       </c>
       <c r="G36">
-        <v>0.07434410019775874</v>
+        <v>0.1029505935668194</v>
       </c>
       <c r="H36">
-        <v>0.07251153592617007</v>
+        <v>0.1029505935668194</v>
       </c>
       <c r="I36">
-        <v>0.005794330916282136</v>
+        <v>0.006019907629522359</v>
       </c>
       <c r="J36">
-        <v>0.002897165458141068</v>
+        <v>0.00300995381476118</v>
       </c>
       <c r="K36">
-        <v>-3.6</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L36">
-        <v>-0.02373104812129203</v>
+        <v>0.004748534554948032</v>
       </c>
       <c r="M36">
-        <v>-0</v>
+        <v>12.2335</v>
       </c>
       <c r="N36">
-        <v>-0</v>
+        <v>0.03102586862794826</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.269035269709544</v>
       </c>
       <c r="P36">
-        <v>-0</v>
+        <v>12.2335</v>
       </c>
       <c r="Q36">
-        <v>-0</v>
+        <v>0.03102586862794826</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1.269035269709544</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
       <c r="U36">
-        <v>106.3</v>
+        <v>455.4</v>
       </c>
       <c r="V36">
-        <v>2.93646408839779</v>
+        <v>1.154958153690084</v>
       </c>
       <c r="W36">
-        <v>-0.06593406593406594</v>
+        <v>0.01111495445635882</v>
       </c>
       <c r="X36">
-        <v>0.06376561276014898</v>
+        <v>0.1388526536877066</v>
       </c>
       <c r="Y36">
-        <v>-0.1296996786942149</v>
+        <v>-0.1277376992313477</v>
       </c>
       <c r="Z36">
-        <v>0.8298687089715536</v>
+        <v>0.2580101557806678</v>
       </c>
       <c r="AA36">
-        <v>0.002404266958424508</v>
+        <v>0.0007765986526391473</v>
       </c>
       <c r="AB36">
-        <v>0.03306249797175886</v>
+        <v>0.02351661279830453</v>
       </c>
       <c r="AC36">
-        <v>-0.03065823101333435</v>
+        <v>-0.02274001414566538</v>
       </c>
       <c r="AD36">
-        <v>211.6</v>
+        <v>7643.7</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>88.89492760653329</v>
       </c>
       <c r="AF36">
-        <v>211.6</v>
+        <v>7732.594927606533</v>
       </c>
       <c r="AG36">
-        <v>105.3</v>
+        <v>7277.194927606533</v>
       </c>
       <c r="AH36">
-        <v>0.853914447134786</v>
+        <v>0.9514820846691904</v>
       </c>
       <c r="AI36">
-        <v>0.5476190476190477</v>
+        <v>0.8793940007777595</v>
       </c>
       <c r="AJ36">
-        <v>0.7441696113074204</v>
+        <v>0.9486019343399319</v>
       </c>
       <c r="AK36">
-        <v>0.3759371652981078</v>
+        <v>0.8728065719352923</v>
       </c>
       <c r="AL36">
-        <v>9.24</v>
+        <v>0.171</v>
       </c>
       <c r="AM36">
-        <v>5.960000000000001</v>
+        <v>-4.399</v>
       </c>
       <c r="AN36">
-        <v>45.8008658008658</v>
+        <v>43.5042686397268</v>
       </c>
       <c r="AO36">
-        <v>0.09512987012987013</v>
+        <v>105.8479532163743</v>
       </c>
       <c r="AP36">
-        <v>22.79220779220779</v>
+        <v>41.41829782360007</v>
       </c>
       <c r="AQ36">
-        <v>0.1474832214765101</v>
+        <v>-4.114571493521255</v>
       </c>
     </row>
     <row r="37">
@@ -5134,7 +5137,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GFA Co., Ltd. (JASDAQ:8783)</t>
+          <t>Bank of Japan (TSE:8301)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5142,26 +5145,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D37">
-        <v>0.465</v>
-      </c>
       <c r="G37">
-        <v>-0.06149425287356323</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>-0.06149425287356323</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>-0.1</v>
+        <v>4.749787410991259e-05</v>
       </c>
       <c r="J37">
-        <v>-0.1</v>
+        <v>4.500882906724931e-05</v>
       </c>
       <c r="K37">
-        <v>-2.23</v>
+        <v>12037.7</v>
       </c>
       <c r="L37">
-        <v>-0.1281609195402299</v>
+        <v>0.6291064354624608</v>
       </c>
       <c r="M37">
         <v>-0</v>
@@ -5170,7 +5170,7 @@
         <v>-0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P37">
         <v>-0</v>
@@ -5179,79 +5179,73 @@
         <v>-0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>7.04</v>
+        <v>1660.7</v>
       </c>
       <c r="V37">
-        <v>0.3610256410256411</v>
+        <v>6.931135225375626</v>
       </c>
       <c r="W37">
-        <v>-0.1517006802721088</v>
+        <v>0.3372471563848266</v>
       </c>
       <c r="X37">
-        <v>0.02964000139684996</v>
+        <v>27.82800443434118</v>
       </c>
       <c r="Y37">
-        <v>-0.1813406816689588</v>
+        <v>-27.49075727795636</v>
       </c>
       <c r="Z37">
-        <v>0.7699115044247786</v>
+        <v>0.0199602746089567</v>
       </c>
       <c r="AA37">
-        <v>-0.07699115044247787</v>
+        <v>8.983885880098884e-07</v>
       </c>
       <c r="AB37">
-        <v>0.02980923802260843</v>
+        <v>0.02378801492643248</v>
       </c>
       <c r="AC37">
-        <v>-0.1068003884650863</v>
+        <v>-0.02378711653784447</v>
       </c>
       <c r="AD37">
-        <v>5.18</v>
+        <v>1082769.1</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>5.505735890282332</v>
       </c>
       <c r="AF37">
-        <v>5.18</v>
+        <v>1082774.60573589</v>
       </c>
       <c r="AG37">
-        <v>-1.86</v>
+        <v>1081113.90573589</v>
       </c>
       <c r="AH37">
-        <v>0.2098865478119935</v>
+        <v>0.9997787655981508</v>
       </c>
       <c r="AI37">
-        <v>0.2618806875631951</v>
+        <v>0.9641555976035875</v>
       </c>
       <c r="AJ37">
-        <v>-0.1054421768707483</v>
+        <v>0.9997784258350954</v>
       </c>
       <c r="AK37">
-        <v>-0.1459968602825746</v>
+        <v>0.9641025135240182</v>
       </c>
       <c r="AL37">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>-4.078740157480315</v>
-      </c>
-      <c r="AO37">
-        <v>-7.532467532467532</v>
+        <v>538691.0945273633</v>
       </c>
       <c r="AP37">
-        <v>1.464566929133859</v>
-      </c>
-      <c r="AQ37">
-        <v>-8.529411764705882</v>
+        <v>537867.6147939754</v>
       </c>
     </row>
     <row r="38">
@@ -5262,7 +5256,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>J Trust Co., Ltd. (TSE:8508)</t>
+          <t>Shinkin Central Bank (TSE:8421)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5271,43 +5265,46 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.0279</v>
+        <v>-0.0108</v>
+      </c>
+      <c r="E38">
+        <v>-0.112</v>
       </c>
       <c r="G38">
-        <v>-0.3951071221771859</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>-0.3963520555877244</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>-0.4197493009200706</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>-0.4197493009200706</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>-325.7</v>
+        <v>327.9</v>
       </c>
       <c r="L38">
-        <v>-0.4714823393167342</v>
+        <v>0.2026951845212338</v>
       </c>
       <c r="M38">
-        <v>0.9530999999999999</v>
+        <v>185.9</v>
       </c>
       <c r="N38">
-        <v>0.002283968368080517</v>
+        <v>0.01204795852235904</v>
       </c>
       <c r="O38">
-        <v>-0.002926312557568314</v>
+        <v>0.5669411405916438</v>
       </c>
       <c r="P38">
-        <v>0.9530999999999999</v>
+        <v>185.9</v>
       </c>
       <c r="Q38">
-        <v>0.002283968368080517</v>
+        <v>0.01204795852235904</v>
       </c>
       <c r="R38">
-        <v>-0.002926312557568314</v>
+        <v>0.5669411405916438</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -5316,73 +5313,61 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>902.3</v>
+        <v>180448.1</v>
       </c>
       <c r="V38">
-        <v>2.162233405224059</v>
+        <v>11.69462734931951</v>
       </c>
       <c r="W38">
-        <v>-0.2677353062063296</v>
+        <v>0.02086993049721225</v>
       </c>
       <c r="X38">
-        <v>0.03931846072209978</v>
+        <v>0.04777512038544636</v>
       </c>
       <c r="Y38">
-        <v>-0.3070537669284294</v>
+        <v>-0.02690518988823411</v>
       </c>
       <c r="Z38">
-        <v>0.6393253075996539</v>
+        <v>-0.02373856324242624</v>
       </c>
       <c r="AA38">
-        <v>-0.2683563509254638</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>0.0318506694153803</v>
+        <v>0.02391064464852508</v>
       </c>
       <c r="AC38">
-        <v>-0.3002070203408441</v>
+        <v>-0.02391064464852508</v>
       </c>
       <c r="AD38">
-        <v>750.2</v>
+        <v>74231.60000000001</v>
       </c>
       <c r="AE38">
-        <v>21.01408537792385</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>771.2140853779239</v>
+        <v>74231.60000000001</v>
       </c>
       <c r="AG38">
-        <v>-131.0859146220761</v>
+        <v>-106216.5</v>
       </c>
       <c r="AH38">
-        <v>0.6488893104979004</v>
+        <v>0.8279084914835336</v>
       </c>
       <c r="AI38">
-        <v>0.4160372365195108</v>
+        <v>0.8219352209865224</v>
       </c>
       <c r="AJ38">
-        <v>-0.4579995231506063</v>
+        <v>1.169959189967671</v>
       </c>
       <c r="AK38">
-        <v>-0.137780086123074</v>
+        <v>1.178417017159835</v>
       </c>
       <c r="AL38">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>15.573</v>
-      </c>
-      <c r="AN38">
-        <v>-2.833509593594199</v>
-      </c>
-      <c r="AO38">
-        <v>-18.84615384615385</v>
-      </c>
-      <c r="AP38">
-        <v>0.4951122322936852</v>
-      </c>
-      <c r="AQ38">
-        <v>-18.87882874205355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5393,7 +5378,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZENKOKU HOSHO Co.,Ltd. (TSE:7164)</t>
+          <t>J Trust Co., Ltd. (TSE:8508)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5401,116 +5386,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D39">
-        <v>0.1</v>
-      </c>
-      <c r="E39">
-        <v>0.161</v>
-      </c>
       <c r="G39">
-        <v>0.7541222114451989</v>
+        <v>-0.02923098394975576</v>
       </c>
       <c r="H39">
-        <v>0.7541222114451989</v>
+        <v>-0.03042568039078856</v>
       </c>
       <c r="I39">
-        <v>0.7861299709020368</v>
+        <v>-0.07006280530355898</v>
       </c>
       <c r="J39">
-        <v>0.5435853337816262</v>
+        <v>-0.07006280530355898</v>
       </c>
       <c r="K39">
-        <v>228.6</v>
+        <v>-60.6</v>
       </c>
       <c r="L39">
-        <v>0.5543161978661494</v>
+        <v>-0.0845778087927425</v>
       </c>
       <c r="M39">
-        <v>-0</v>
+        <v>1.2708</v>
       </c>
       <c r="N39">
-        <v>-0</v>
+        <v>0.006133204633204634</v>
       </c>
       <c r="O39">
-        <v>-0</v>
+        <v>-0.02097029702970297</v>
       </c>
       <c r="P39">
-        <v>-0</v>
+        <v>1.2708</v>
       </c>
       <c r="Q39">
-        <v>-0</v>
+        <v>0.006133204633204634</v>
       </c>
       <c r="R39">
-        <v>-0</v>
+        <v>-0.02097029702970297</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
       <c r="U39">
-        <v>1431.6</v>
+        <v>725.1</v>
       </c>
       <c r="V39">
-        <v>0.4865746720141391</v>
+        <v>3.499517374517375</v>
       </c>
       <c r="W39">
-        <v>0.2330037712771379</v>
+        <v>-0.06403212172442942</v>
       </c>
       <c r="X39">
-        <v>0.02801532215363055</v>
+        <v>0.03815495441037527</v>
       </c>
       <c r="Y39">
-        <v>0.2049884491235073</v>
+        <v>-0.1021870761348047</v>
       </c>
       <c r="Z39">
-        <v>-1.045373891001268</v>
+        <v>0.8638775018085363</v>
       </c>
       <c r="AA39">
-        <v>-0.5682499154665214</v>
+        <v>-0.06052568121533639</v>
       </c>
       <c r="AB39">
-        <v>0.02801532215363055</v>
+        <v>0.02596731419186452</v>
       </c>
       <c r="AC39">
-        <v>-0.5962652376201519</v>
+        <v>-0.08649299540720091</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>672.9</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>672.9</v>
       </c>
       <c r="AG39">
-        <v>-1431.6</v>
+        <v>-52.20000000000005</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>0.7645722077036701</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>0.3832004555808656</v>
       </c>
       <c r="AJ39">
-        <v>-0.9477028995101284</v>
+        <v>-0.3367741935483875</v>
       </c>
       <c r="AK39">
-        <v>6.303830911492737</v>
+        <v>-0.05063536715491324</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="AM39">
-        <v>-9.5</v>
+        <v>11.502</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>-30.86697247706422</v>
+      </c>
+      <c r="AO39">
+        <v>-4.148760330578512</v>
       </c>
       <c r="AP39">
-        <v>-4.386029411764706</v>
+        <v>2.394495412844039</v>
       </c>
       <c r="AQ39">
-        <v>-34.12631578947369</v>
+        <v>-4.364458355068685</v>
       </c>
     </row>
     <row r="40">
@@ -5521,7 +5506,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Casa Inc. (TSE:7196)</t>
+          <t>GFA Co., Ltd. (JASDAQ:8783)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5529,23 +5514,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D40">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="G40">
-        <v>0.182883939038687</v>
+        <v>-0.1496815286624204</v>
       </c>
       <c r="H40">
-        <v>0.182883939038687</v>
+        <v>-0.1496815286624204</v>
       </c>
       <c r="I40">
-        <v>0.1535756154747948</v>
+        <v>-0.4764331210191083</v>
       </c>
       <c r="J40">
-        <v>0.09440383421832978</v>
+        <v>-0.4764331210191083</v>
       </c>
       <c r="K40">
-        <v>8.33</v>
+        <v>-9.67</v>
       </c>
       <c r="L40">
-        <v>0.09765533411488864</v>
+        <v>-0.6159235668789809</v>
       </c>
       <c r="M40">
         <v>-0</v>
@@ -5554,7 +5542,7 @@
         <v>-0</v>
       </c>
       <c r="O40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>-0</v>
@@ -5563,73 +5551,79 @@
         <v>-0</v>
       </c>
       <c r="R40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>26.8</v>
+        <v>4.87</v>
       </c>
       <c r="V40">
-        <v>0.2015037593984962</v>
+        <v>0.2987730061349693</v>
       </c>
       <c r="W40">
-        <v>0.14190800681431</v>
+        <v>-0.6623287671232877</v>
       </c>
       <c r="X40">
-        <v>0.02801532215363055</v>
+        <v>0.02394609686026525</v>
       </c>
       <c r="Y40">
-        <v>0.1138926846606795</v>
+        <v>-0.686274863983553</v>
       </c>
       <c r="Z40">
-        <v>-44.8947368421053</v>
+        <v>1.319549504118339</v>
       </c>
       <c r="AA40">
-        <v>-4.238235294117651</v>
+        <v>-0.628677088586317</v>
       </c>
       <c r="AB40">
-        <v>0.02801532215363055</v>
+        <v>0.02310768964325599</v>
       </c>
       <c r="AC40">
-        <v>-4.266250616271281</v>
+        <v>-0.6517847782295729</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="AG40">
-        <v>-26.8</v>
+        <v>10.43</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>0.4841772151898734</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="AJ40">
-        <v>-0.2523540489642185</v>
+        <v>0.390198279087168</v>
       </c>
       <c r="AK40">
-        <v>-0.7859237536656893</v>
+        <v>0.4983277591973244</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>0.284</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>-2.318181818181818</v>
+      </c>
+      <c r="AO40">
+        <v>-26.33802816901409</v>
       </c>
       <c r="AP40">
-        <v>-1.654320987654321</v>
+        <v>-1.58030303030303</v>
+      </c>
+      <c r="AQ40">
+        <v>-31.42857142857143</v>
       </c>
     </row>
     <row r="41">
@@ -5640,7 +5634,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Entrust Inc. (TSE:7191)</t>
+          <t>ZENKOKU HOSHO Co.,Ltd. (TSE:7164)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5648,23 +5642,29 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D41">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.09179999999999999</v>
+      </c>
       <c r="G41">
-        <v>0.2550161812297735</v>
+        <v>0.7514739229024943</v>
       </c>
       <c r="H41">
-        <v>0.2550161812297735</v>
+        <v>0.7514739229024943</v>
       </c>
       <c r="I41">
-        <v>0.2944983818770227</v>
+        <v>0.7863945578231293</v>
       </c>
       <c r="J41">
-        <v>0.1986001189115675</v>
+        <v>0.5445325106786901</v>
       </c>
       <c r="K41">
-        <v>6.13</v>
+        <v>238.2</v>
       </c>
       <c r="L41">
-        <v>0.1983818770226537</v>
+        <v>0.5401360544217687</v>
       </c>
       <c r="M41">
         <v>-0</v>
@@ -5688,67 +5688,73 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>26</v>
+        <v>1538.1</v>
       </c>
       <c r="V41">
-        <v>0.1733333333333333</v>
+        <v>0.4884562863222077</v>
       </c>
       <c r="W41">
-        <v>0.2665217391304348</v>
+        <v>0.197758405977584</v>
       </c>
       <c r="X41">
-        <v>0.02801532215363055</v>
+        <v>0.01872557946496275</v>
       </c>
       <c r="Y41">
-        <v>0.2385064169768042</v>
+        <v>0.1790328265126213</v>
       </c>
       <c r="Z41">
-        <v>-30.9</v>
+        <v>-1.941875825627478</v>
       </c>
       <c r="AA41">
-        <v>-6.136743674367437</v>
+        <v>-1.057414518755185</v>
       </c>
       <c r="AB41">
-        <v>0.02801532215363055</v>
+        <v>0.01863527400361859</v>
       </c>
       <c r="AC41">
-        <v>-6.164758996521067</v>
+        <v>-1.076049792758803</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>284.4</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>284.4</v>
       </c>
       <c r="AG41">
-        <v>-26</v>
+        <v>-1253.7</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>0.08283575568694841</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>0.1678965700454572</v>
       </c>
       <c r="AJ41">
-        <v>-0.2096774193548387</v>
+        <v>-0.6615132967496832</v>
       </c>
       <c r="AK41">
-        <v>-8.965517241379315</v>
+        <v>-8.046854942233622</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="AM41">
-        <v>0</v>
+        <v>-7.91</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>0.8135011441647596</v>
+      </c>
+      <c r="AO41">
+        <v>75.55555555555556</v>
       </c>
       <c r="AP41">
-        <v>-2.768903088391906</v>
+        <v>-3.586098398169336</v>
+      </c>
+      <c r="AQ41">
+        <v>-43.84323640960809</v>
       </c>
     </row>
   </sheetData>
